--- a/300144_宋城演艺/宋城演艺估值.xlsx
+++ b/300144_宋城演艺/宋城演艺估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DCF速算" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="合并现金流表" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">在建工程历史!$A$1:$P$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">在建工程历史!$A$1:$P$121</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
@@ -225,7 +225,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0">
+    <comment ref="C90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>出售，卖价10,919.9300</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0">
+    <comment ref="C107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0">
+    <comment ref="C111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A111" authorId="0" shapeId="0">
+    <comment ref="A112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A114" authorId="0" shapeId="0">
+    <comment ref="A115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A116" authorId="0" shapeId="0">
+    <comment ref="A117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2631,7 +2646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2947,6 +2962,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3314,18 +3332,18 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
-      <c r="P2" s="113" t="str">
+      <c r="P2" s="114" t="str">
         <f>G2</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
       <c r="S2" s="35"/>
-      <c r="T2" s="113" t="str">
+      <c r="T2" s="114" t="str">
         <f>G2</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="U2" s="115"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -5838,7 +5856,7 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:O87"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10208,7 +10226,7 @@
         <v>0.05</v>
       </c>
       <c r="M7">
-        <f t="dataTable" ref="M7:X15" dt2D="1" dtr="1" r1="C5" r2="C7" ca="1"/>
+        <f t="dataTable" ref="M7:X15" dt2D="1" dtr="1" r1="C5" r2="C7"/>
         <v>177.01406975488604</v>
       </c>
       <c r="N7">
@@ -10838,7 +10856,7 @@
         <v>0.05</v>
       </c>
       <c r="M25">
-        <f t="dataTable" ref="M25:X33" dt2D="1" dtr="1" r1="C5" r2="C7"/>
+        <f t="dataTable" ref="M25:X33" dt2D="1" dtr="1" r1="C5" r2="C7" ca="1"/>
         <v>211.85083740583295</v>
       </c>
       <c r="N25">
@@ -11229,8 +11247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11282,7 +11300,7 @@
       </c>
       <c r="L6">
         <f>E18</f>
-        <v>39740897096.586853</v>
+        <v>35470903023.14341</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -11335,41 +11353,41 @@
         <v>0</v>
       </c>
       <c r="M7" s="69">
-        <f t="dataTable" ref="M7:X15" dt2D="1" dtr="1" r1="C5" r2="C7"/>
-        <v>14971172532.221643</v>
+        <f t="dataTable" ref="M7:X15" dt2D="1" dtr="1" r1="C5" r2="C7" ca="1"/>
+        <v>13342385777.329597</v>
       </c>
       <c r="N7" s="69">
-        <v>17773726962.601063</v>
+        <v>15845745277.574242</v>
       </c>
       <c r="O7" s="69">
-        <v>21977558608.170189</v>
+        <v>19600784527.941212</v>
       </c>
       <c r="P7" s="69">
-        <v>26181390253.739319</v>
+        <v>23355823778.308178</v>
       </c>
       <c r="Q7" s="69">
-        <v>28983944684.118736</v>
+        <v>25859183278.55283</v>
       </c>
       <c r="R7" s="69">
-        <v>31786499114.498158</v>
+        <v>28362542778.797474</v>
       </c>
       <c r="S7" s="69">
-        <v>35990330760.067291</v>
+        <v>32117582029.16444</v>
       </c>
       <c r="T7" s="69">
-        <v>42996716836.015846</v>
+        <v>38375980779.776054</v>
       </c>
       <c r="U7" s="69">
-        <v>50003102911.964394</v>
+        <v>44634379530.387665</v>
       </c>
       <c r="V7" s="69">
-        <v>57009488987.912941</v>
+        <v>50892778280.999283</v>
       </c>
       <c r="W7" s="69">
-        <v>64015875063.861496</v>
+        <v>57151177031.610893</v>
       </c>
       <c r="X7" s="69">
-        <v>71022261139.810028</v>
+        <v>63409575782.222511</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -11378,40 +11396,40 @@
         <v>0.06</v>
       </c>
       <c r="M8" s="69">
-        <v>12607041108.178679</v>
+        <v>11233069819.136702</v>
       </c>
       <c r="N8" s="69">
-        <v>14960119849.672848</v>
+        <v>13334938727.904211</v>
       </c>
       <c r="O8" s="69">
-        <v>18489737961.914101</v>
+        <v>16487742091.055477</v>
       </c>
       <c r="P8" s="69">
-        <v>22019356074.155354</v>
+        <v>19640545454.206745</v>
       </c>
       <c r="Q8" s="69">
-        <v>24372434815.649521</v>
+        <v>21742414362.974255</v>
       </c>
       <c r="R8" s="69">
-        <v>26725513557.143692</v>
+        <v>23844283271.741764</v>
       </c>
       <c r="S8" s="69">
-        <v>30255131669.384941</v>
+        <v>26997086634.893032</v>
       </c>
       <c r="T8" s="69">
-        <v>36137828523.120369</v>
+        <v>32251758906.811806</v>
       </c>
       <c r="U8" s="69">
-        <v>42020525376.855789</v>
+        <v>37506431178.730576</v>
       </c>
       <c r="V8" s="69">
-        <v>47903222230.591209</v>
+        <v>42761103450.649353</v>
       </c>
       <c r="W8" s="69">
-        <v>53785919084.326637</v>
+        <v>48015775722.56813</v>
       </c>
       <c r="X8" s="69">
-        <v>59668615938.06205</v>
+        <v>53270447994.486908</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -11420,40 +11438,40 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M9" s="69">
-        <v>12262959486.47632</v>
+        <v>10926091916.14756</v>
       </c>
       <c r="N9" s="69">
-        <v>14550678717.866093</v>
+        <v>12969578961.291809</v>
       </c>
       <c r="O9" s="69">
-        <v>17982257564.950752</v>
+        <v>16034809529.008183</v>
       </c>
       <c r="P9" s="69">
-        <v>21413836412.035408</v>
+        <v>19100040096.724552</v>
       </c>
       <c r="Q9" s="69">
-        <v>23701555643.425179</v>
+        <v>21143527141.868801</v>
       </c>
       <c r="R9" s="69">
-        <v>25989274874.814949</v>
+        <v>23187014187.01305</v>
       </c>
       <c r="S9" s="69">
-        <v>29420853721.899605</v>
+        <v>26252244754.729424</v>
       </c>
       <c r="T9" s="69">
-        <v>35140151800.374039</v>
+        <v>31360962367.590046</v>
       </c>
       <c r="U9" s="69">
-        <v>40859449878.848465</v>
+        <v>36469679980.450668</v>
       </c>
       <c r="V9" s="69">
-        <v>46578747957.322891</v>
+        <v>41578397593.311287</v>
       </c>
       <c r="W9" s="69">
-        <v>52298046035.797325</v>
+        <v>46687115206.171906</v>
       </c>
       <c r="X9" s="69">
-        <v>58017344114.271744</v>
+        <v>51795832819.032532</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -11479,40 +11497,40 @@
         <v>0.08</v>
       </c>
       <c r="M10" s="69">
-        <v>11931421295.973103</v>
+        <v>10630309496.164179</v>
       </c>
       <c r="N10" s="69">
-        <v>14156179360.022203</v>
+        <v>12617556978.322515</v>
       </c>
       <c r="O10" s="69">
-        <v>17493316456.095852</v>
+        <v>15598428201.560026</v>
       </c>
       <c r="P10" s="69">
-        <v>20830453552.169506</v>
+        <v>18579299424.797527</v>
       </c>
       <c r="Q10" s="69">
-        <v>23055211616.218605</v>
+        <v>20566546906.955868</v>
       </c>
       <c r="R10" s="69">
-        <v>25279969680.267704</v>
+        <v>22553794389.114208</v>
       </c>
       <c r="S10" s="69">
-        <v>28617106776.341351</v>
+        <v>25534665612.351719</v>
       </c>
       <c r="T10" s="69">
-        <v>34179001936.464104</v>
+        <v>30502784317.747562</v>
       </c>
       <c r="U10" s="69">
-        <v>39740897096.586853</v>
+        <v>35470903023.14341</v>
       </c>
       <c r="V10" s="69">
-        <v>45302792256.709602</v>
+        <v>40439021728.539261</v>
       </c>
       <c r="W10" s="69">
-        <v>50864687416.832352</v>
+        <v>45407140433.935104</v>
       </c>
       <c r="X10" s="69">
-        <v>56426582576.955093</v>
+        <v>50375259139.330956</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -11538,40 +11556,40 @@
         <v>0.09</v>
       </c>
       <c r="M11" s="69">
-        <v>11611858412.979879</v>
+        <v>10345215384.447264</v>
       </c>
       <c r="N11" s="69">
-        <v>13775944646.090815</v>
+        <v>12278268235.1901</v>
       </c>
       <c r="O11" s="69">
-        <v>17022073995.757215</v>
+        <v>15177847511.304356</v>
       </c>
       <c r="P11" s="69">
-        <v>20268203345.423615</v>
+        <v>18077426787.418613</v>
       </c>
       <c r="Q11" s="69">
-        <v>22432289578.534546</v>
+        <v>20010479638.161449</v>
       </c>
       <c r="R11" s="69">
-        <v>24596375811.645481</v>
+        <v>21943532488.904285</v>
       </c>
       <c r="S11" s="69">
-        <v>27842505161.311878</v>
+        <v>24843111765.018543</v>
       </c>
       <c r="T11" s="69">
-        <v>33252720744.089218</v>
+        <v>29675743891.875633</v>
       </c>
       <c r="U11" s="69">
-        <v>38662936326.866539</v>
+        <v>34508376018.732719</v>
       </c>
       <c r="V11" s="69">
-        <v>44073151909.643875</v>
+        <v>39341008145.589813</v>
       </c>
       <c r="W11" s="69">
-        <v>49483367492.421211</v>
+        <v>44173640272.446907</v>
       </c>
       <c r="X11" s="69">
-        <v>54893583075.19854</v>
+        <v>49006272399.304001</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -11597,40 +11615,40 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="69">
-        <v>11303733353.509806</v>
+        <v>10070329762.173792</v>
       </c>
       <c r="N12" s="69">
-        <v>13409333977.386154</v>
+        <v>11951140806.685169</v>
       </c>
       <c r="O12" s="69">
-        <v>16567734913.200676</v>
+        <v>14772357373.45224</v>
       </c>
       <c r="P12" s="69">
-        <v>19726135849.015198</v>
+        <v>17593573940.219307</v>
       </c>
       <c r="Q12" s="69">
-        <v>21831736472.891544</v>
+        <v>19474384984.730686</v>
       </c>
       <c r="R12" s="69">
-        <v>23937337096.767895</v>
+        <v>21355196029.242065</v>
       </c>
       <c r="S12" s="69">
-        <v>27095738032.582413</v>
+        <v>24176412596.009132</v>
       </c>
       <c r="T12" s="69">
-        <v>32359739592.273285</v>
+        <v>28878440207.287582</v>
       </c>
       <c r="U12" s="69">
-        <v>37623741151.964157</v>
+        <v>33580467818.566025</v>
       </c>
       <c r="V12" s="69">
-        <v>42887742711.655022</v>
+        <v>38282495429.844467</v>
       </c>
       <c r="W12" s="69">
-        <v>48151744271.345894</v>
+        <v>42984523041.122917</v>
       </c>
       <c r="X12" s="69">
-        <v>53415745831.036758</v>
+        <v>47686550652.40136</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
@@ -11656,40 +11674,40 @@
         <v>0.12</v>
       </c>
       <c r="M13" s="69">
-        <v>10719788631.363731</v>
+        <v>9549391368.0793438</v>
       </c>
       <c r="N13" s="69">
-        <v>12714591518.329769</v>
+        <v>11331233213.529533</v>
       </c>
       <c r="O13" s="69">
-        <v>15706795848.778824</v>
+        <v>14003995981.704819</v>
       </c>
       <c r="P13" s="69">
-        <v>18699000179.227879</v>
+        <v>16676758749.880104</v>
       </c>
       <c r="Q13" s="69">
-        <v>20693803066.193913</v>
+        <v>18458600595.330296</v>
       </c>
       <c r="R13" s="69">
-        <v>22688605953.15995</v>
+        <v>20240442440.780483</v>
       </c>
       <c r="S13" s="69">
-        <v>25680810283.609001</v>
+        <v>22913205208.955772</v>
       </c>
       <c r="T13" s="69">
-        <v>30667817501.024097</v>
+        <v>27367809822.581245</v>
       </c>
       <c r="U13" s="69">
-        <v>35654824718.439186</v>
+        <v>31822414436.206718</v>
       </c>
       <c r="V13" s="69">
-        <v>40641831935.854271</v>
+        <v>36277019049.832191</v>
       </c>
       <c r="W13" s="69">
-        <v>45628839153.269363</v>
+        <v>40731623663.457664</v>
       </c>
       <c r="X13" s="69">
-        <v>50615846370.684448</v>
+        <v>45186228277.083145</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
@@ -11698,63 +11716,63 @@
       </c>
       <c r="C14" s="104">
         <f>各营业业务分析!K286</f>
-        <v>614995143.12578082</v>
+        <v>491354576.26540506</v>
       </c>
       <c r="D14" s="104">
         <f>各营业业务分析!K287</f>
-        <v>1178395576.099654</v>
+        <v>1008926593.9668347</v>
       </c>
       <c r="E14" s="104">
         <f>各营业业务分析!K288</f>
-        <v>1401277215.1897099</v>
+        <v>1251679750.1223228</v>
       </c>
       <c r="F14" s="104">
         <f>各营业业务分析!K289</f>
-        <v>1648776882.1231265</v>
+        <v>1440489725.7045765</v>
       </c>
       <c r="G14" s="104">
         <f>各营业业务分析!K290</f>
-        <v>1879749988.3740149</v>
+        <v>1619595393.8602722</v>
       </c>
       <c r="H14" s="104"/>
       <c r="L14" s="57">
         <v>0.15</v>
       </c>
       <c r="M14" s="69">
-        <v>9917778327.1100864</v>
+        <v>8833944952.2885094</v>
       </c>
       <c r="N14" s="69">
-        <v>11760503357.35874</v>
+        <v>10479944459.312191</v>
       </c>
       <c r="O14" s="69">
-        <v>14524590902.73172</v>
+        <v>12948943719.847719</v>
       </c>
       <c r="P14" s="69">
-        <v>17288678448.104698</v>
+        <v>15417942980.383245</v>
       </c>
       <c r="Q14" s="69">
-        <v>19131403478.353352</v>
+        <v>17063942487.406931</v>
       </c>
       <c r="R14" s="69">
-        <v>20974128508.602005</v>
+        <v>18709941994.430622</v>
       </c>
       <c r="S14" s="69">
-        <v>23738216053.974983</v>
+        <v>21178941254.966148</v>
       </c>
       <c r="T14" s="69">
-        <v>28345028629.596619</v>
+        <v>25293940022.52536</v>
       </c>
       <c r="U14" s="69">
-        <v>32951841205.21825</v>
+        <v>29408938790.084568</v>
       </c>
       <c r="V14" s="69">
-        <v>37558653780.83989</v>
+        <v>33523937557.643784</v>
       </c>
       <c r="W14" s="69">
-        <v>42165466356.461525</v>
+        <v>37638936325.202988</v>
       </c>
       <c r="X14" s="69">
-        <v>46772278932.083153</v>
+        <v>41753935092.762199</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -11763,63 +11781,63 @@
       </c>
       <c r="C15" s="104">
         <f>C14*C13</f>
-        <v>184498542.93773425</v>
+        <v>147406372.87962151</v>
       </c>
       <c r="D15" s="104">
         <f>D14*D13</f>
-        <v>353518672.82989615</v>
+        <v>302677978.19005036</v>
       </c>
       <c r="E15" s="104">
         <f>E14*E13</f>
-        <v>420383164.55691296</v>
+        <v>375503925.03669685</v>
       </c>
       <c r="F15" s="104">
         <f>F14*F13</f>
-        <v>494633064.63693792</v>
+        <v>432146917.71137291</v>
       </c>
       <c r="G15" s="104">
         <f>G14*G13</f>
-        <v>563924996.51220441</v>
+        <v>485878618.15808165</v>
       </c>
       <c r="H15" s="104"/>
       <c r="L15" s="57">
         <v>0.2</v>
       </c>
       <c r="M15" s="69">
-        <v>8751768301.8982773</v>
+        <v>7793854269.1172686</v>
       </c>
       <c r="N15" s="69">
-        <v>10373616930.590073</v>
+        <v>9242557683.6106987</v>
       </c>
       <c r="O15" s="69">
-        <v>12806389873.627764</v>
+        <v>11415612805.350843</v>
       </c>
       <c r="P15" s="69">
-        <v>15239162816.665455</v>
+        <v>13588667927.090986</v>
       </c>
       <c r="Q15" s="69">
-        <v>16861011445.357246</v>
+        <v>15037371341.584415</v>
       </c>
       <c r="R15" s="69">
-        <v>18482860074.049042</v>
+        <v>16486074756.077845</v>
       </c>
       <c r="S15" s="69">
-        <v>20915633017.086731</v>
+        <v>18659129877.817989</v>
       </c>
       <c r="T15" s="69">
-        <v>24970254588.816219</v>
+        <v>22280888414.051563</v>
       </c>
       <c r="U15" s="69">
-        <v>29024876160.5457</v>
+        <v>25902646950.285133</v>
       </c>
       <c r="V15" s="69">
-        <v>33079497732.275185</v>
+        <v>29524405486.518707</v>
       </c>
       <c r="W15" s="69">
-        <v>37134119304.004677</v>
+        <v>33146164022.752277</v>
       </c>
       <c r="X15" s="69">
-        <v>41188740875.734161</v>
+        <v>36767922558.985855</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -11828,27 +11846,27 @@
       </c>
       <c r="C16" s="104">
         <f>C15/(1+C7)</f>
-        <v>170831984.20160577</v>
+        <v>136487382.29594582</v>
       </c>
       <c r="D16" s="104">
         <f>D15/(1+C7)^(D11)</f>
-        <v>303085281.91863525</v>
+        <v>259497580.75278664</v>
       </c>
       <c r="E16" s="104">
         <f>E15/(1+C7)^(E11)</f>
-        <v>333713709.60736495</v>
+        <v>298087122.32375085</v>
       </c>
       <c r="F16" s="104">
         <f>F15/(1+C7)^(F11)</f>
-        <v>363570068.68834704</v>
+        <v>317640885.31183141</v>
       </c>
       <c r="G16" s="104">
         <f>G15/(1+C7)^(G11)</f>
-        <v>383797877.01352412</v>
+        <v>330680823.31636935</v>
       </c>
       <c r="H16" s="104">
         <f>SUM(C16:G16)</f>
-        <v>1554998921.4294772</v>
+        <v>1342393794.000684</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -11859,12 +11877,12 @@
       <c r="D17" s="104"/>
       <c r="E17" s="104">
         <f>E14*C5/(1+C7)^E11</f>
-        <v>38933266120.859245</v>
+        <v>34776830937.770927</v>
       </c>
       <c r="F17" s="104"/>
       <c r="G17" s="104">
         <f>G14*C5/(1+C7)^G11</f>
-        <v>44776418984.911148</v>
+        <v>38579429386.90976</v>
       </c>
       <c r="H17" s="104"/>
     </row>
@@ -11876,12 +11894,12 @@
       <c r="D18" s="104"/>
       <c r="E18" s="104">
         <f>E17+C16+D16+E16</f>
-        <v>39740897096.586853</v>
+        <v>35470903023.14341</v>
       </c>
       <c r="F18" s="104"/>
       <c r="G18" s="104">
         <f>G17+H16</f>
-        <v>46331417906.340622</v>
+        <v>39921823180.910446</v>
       </c>
       <c r="H18" s="104"/>
     </row>
@@ -11927,12 +11945,12 @@
       <c r="D22" s="104"/>
       <c r="E22" s="104">
         <f>E18/C20</f>
-        <v>15.199062103873098</v>
+        <v>13.565986107936135</v>
       </c>
       <c r="F22" s="104"/>
       <c r="G22" s="104">
         <f>G18/C20</f>
-        <v>17.719632659712882</v>
+        <v>15.268257995077102</v>
       </c>
       <c r="H22" s="104"/>
       <c r="K22" t="s">
@@ -11956,7 +11974,7 @@
       </c>
       <c r="L24">
         <f>G18</f>
-        <v>46331417906.340622</v>
+        <v>39921823180.910446</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -12003,41 +12021,41 @@
         <v>0</v>
       </c>
       <c r="M25" s="69">
-        <f t="dataTable" ref="M25:X33" dt2D="1" dtr="1" r1="C5" r2="C7" ca="1"/>
-        <v>20814458325.213837</v>
+        <f t="dataTable" ref="M25:X33" dt2D="1" dtr="1" r1="C5" r2="C7"/>
+        <v>17939567750.578545</v>
       </c>
       <c r="N25" s="69">
-        <v>24573958301.961864</v>
+        <v>21178758538.299088</v>
       </c>
       <c r="O25" s="69">
-        <v>30213208267.083908</v>
+        <v>26037544719.879906</v>
       </c>
       <c r="P25" s="69">
-        <v>35852458232.205956</v>
+        <v>30896330901.46072</v>
       </c>
       <c r="Q25" s="69">
-        <v>39611958208.953987</v>
+        <v>34135521689.181267</v>
       </c>
       <c r="R25" s="69">
-        <v>43371458185.702011</v>
+        <v>37374712476.90181</v>
       </c>
       <c r="S25" s="69">
-        <v>49010708150.824059</v>
+        <v>42233498658.482628</v>
       </c>
       <c r="T25" s="69">
-        <v>58409458092.69413</v>
+        <v>50331475627.783989</v>
       </c>
       <c r="U25" s="69">
-        <v>67808208034.564209</v>
+        <v>58429452597.08535</v>
       </c>
       <c r="V25" s="69">
-        <v>77206957976.43428</v>
+        <v>66527429566.386711</v>
       </c>
       <c r="W25" s="69">
-        <v>86605707918.304352</v>
+        <v>74625406535.68808</v>
       </c>
       <c r="X25" s="69">
-        <v>96004457860.174423</v>
+        <v>82723383504.989441</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
@@ -12045,40 +12063,40 @@
         <v>0.04</v>
       </c>
       <c r="M26" s="69">
-        <v>17214463784.290634</v>
+        <v>14836052689.52578</v>
       </c>
       <c r="N26" s="69">
-        <v>20304498723.040989</v>
+        <v>17498431401.918472</v>
       </c>
       <c r="O26" s="69">
-        <v>24939551131.166527</v>
+        <v>21491999470.507511</v>
       </c>
       <c r="P26" s="69">
-        <v>29574603539.292065</v>
+        <v>25485567539.096546</v>
       </c>
       <c r="Q26" s="69">
-        <v>32664638478.042423</v>
+        <v>28147946251.489239</v>
       </c>
       <c r="R26" s="69">
-        <v>35754673416.79277</v>
+        <v>30810324963.881931</v>
       </c>
       <c r="S26" s="69">
-        <v>40389725824.918312</v>
+        <v>34803893032.47097</v>
       </c>
       <c r="T26" s="69">
-        <v>48114813171.794205</v>
+        <v>41459839813.452705</v>
       </c>
       <c r="U26" s="69">
-        <v>55839900518.670097</v>
+        <v>48115786594.434433</v>
       </c>
       <c r="V26" s="69">
-        <v>63564987865.545998</v>
+        <v>54771733375.416161</v>
       </c>
       <c r="W26" s="69">
-        <v>71290075212.42189</v>
+        <v>61427680156.397896</v>
       </c>
       <c r="X26" s="69">
-        <v>79015162559.297791</v>
+        <v>68083626937.379623</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -12087,40 +12105,40 @@
         <v>0.05</v>
       </c>
       <c r="M27" s="69">
-        <v>16436626398.993797</v>
+        <v>14165479930.873772</v>
       </c>
       <c r="N27" s="69">
-        <v>19382293003.613438</v>
+        <v>16703470671.236397</v>
       </c>
       <c r="O27" s="69">
-        <v>23800792910.542904</v>
+        <v>20510456781.780338</v>
       </c>
       <c r="P27" s="69">
-        <v>28219292817.472374</v>
+        <v>24317442892.324276</v>
       </c>
       <c r="Q27" s="69">
-        <v>31164959422.092018</v>
+        <v>26855433632.686901</v>
       </c>
       <c r="R27" s="69">
-        <v>34110626026.711658</v>
+        <v>29393424373.049526</v>
       </c>
       <c r="S27" s="69">
-        <v>38529125933.641129</v>
+        <v>33200410483.593468</v>
       </c>
       <c r="T27" s="69">
-        <v>45893292445.190239</v>
+        <v>39545387334.500031</v>
       </c>
       <c r="U27" s="69">
-        <v>53257458956.739357</v>
+        <v>45890364185.406593</v>
       </c>
       <c r="V27" s="69">
-        <v>60621625468.288467</v>
+        <v>52235341036.313156</v>
       </c>
       <c r="W27" s="69">
-        <v>67985791979.837578</v>
+        <v>58580317887.219727</v>
       </c>
       <c r="X27" s="69">
-        <v>75349958491.386673</v>
+        <v>64925294738.126289</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
@@ -12129,40 +12147,40 @@
         <v>0.06</v>
       </c>
       <c r="M28" s="69">
-        <v>15701426096.935543</v>
+        <v>13531661826.828751</v>
       </c>
       <c r="N28" s="69">
-        <v>18510743180.450256</v>
+        <v>15952173616.425367</v>
       </c>
       <c r="O28" s="69">
-        <v>22724718805.722332</v>
+        <v>19582941300.820297</v>
       </c>
       <c r="P28" s="69">
-        <v>26938694430.994408</v>
+        <v>23213708985.215221</v>
       </c>
       <c r="Q28" s="69">
-        <v>29748011514.509125</v>
+        <v>25634220774.81184</v>
       </c>
       <c r="R28" s="69">
-        <v>32557328598.023838</v>
+        <v>28054732564.408459</v>
       </c>
       <c r="S28" s="69">
-        <v>36771304223.295914</v>
+        <v>31685500248.803387</v>
       </c>
       <c r="T28" s="69">
-        <v>43794596932.082703</v>
+        <v>37736779722.79493</v>
       </c>
       <c r="U28" s="69">
-        <v>50817889640.869492</v>
+        <v>43788059196.786476</v>
       </c>
       <c r="V28" s="69">
-        <v>57841182349.656288</v>
+        <v>49839338670.778015</v>
       </c>
       <c r="W28" s="69">
-        <v>64864475058.443077</v>
+        <v>55890618144.769562</v>
       </c>
       <c r="X28" s="69">
-        <v>71887767767.229858</v>
+        <v>61941897618.761108</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
@@ -12171,40 +12189,40 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M29" s="69">
-        <v>15006144880.990545</v>
+        <v>12932255566.280582</v>
       </c>
       <c r="N29" s="69">
-        <v>17686616406.181061</v>
+        <v>15241753830.636147</v>
       </c>
       <c r="O29" s="69">
-        <v>21707323693.966839</v>
+        <v>18706001227.169495</v>
       </c>
       <c r="P29" s="69">
-        <v>25728030981.752617</v>
+        <v>22170248623.702843</v>
       </c>
       <c r="Q29" s="69">
-        <v>28408502506.943134</v>
+        <v>24479746888.058411</v>
       </c>
       <c r="R29" s="69">
-        <v>31088974032.133648</v>
+        <v>26789245152.413971</v>
       </c>
       <c r="S29" s="69">
-        <v>35109681319.919426</v>
+        <v>30253492548.947319</v>
       </c>
       <c r="T29" s="69">
-        <v>41810860132.895721</v>
+        <v>36027238209.836235</v>
       </c>
       <c r="U29" s="69">
-        <v>48512038945.872017</v>
+        <v>41800983870.725143</v>
       </c>
       <c r="V29" s="69">
-        <v>55213217758.848312</v>
+        <v>47574729531.614059</v>
       </c>
       <c r="W29" s="69">
-        <v>61914396571.824608</v>
+        <v>53348475192.502968</v>
       </c>
       <c r="X29" s="69">
-        <v>68615575384.800903</v>
+        <v>59122220853.391884</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
@@ -12213,40 +12231,40 @@
         <v>0.1</v>
       </c>
       <c r="M30" s="69">
-        <v>13135492825.700289</v>
+        <v>11319542241.303514</v>
       </c>
       <c r="N30" s="69">
-        <v>15469846525.303537</v>
+        <v>13330824870.85598</v>
       </c>
       <c r="O30" s="69">
-        <v>18971377074.708408</v>
+        <v>16347748815.184681</v>
       </c>
       <c r="P30" s="69">
-        <v>22472907624.113285</v>
+        <v>19364672759.513378</v>
       </c>
       <c r="Q30" s="69">
-        <v>24807261323.716534</v>
+        <v>21375955389.065849</v>
       </c>
       <c r="R30" s="69">
-        <v>27141615023.319782</v>
+        <v>23387238018.618313</v>
       </c>
       <c r="S30" s="69">
-        <v>30643145572.724655</v>
+        <v>26404161962.947014</v>
       </c>
       <c r="T30" s="69">
-        <v>36479029821.732773</v>
+        <v>31432368536.828182</v>
       </c>
       <c r="U30" s="69">
-        <v>42314914070.740898</v>
+        <v>36460575110.709351</v>
       </c>
       <c r="V30" s="69">
-        <v>48150798319.749023</v>
+        <v>41488781684.590515</v>
       </c>
       <c r="W30" s="69">
-        <v>53986682568.757149</v>
+        <v>46516988258.47168</v>
       </c>
       <c r="X30" s="69">
-        <v>59822566817.765266</v>
+        <v>51545194832.352844</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
@@ -12255,40 +12273,40 @@
         <v>0.12</v>
       </c>
       <c r="M31" s="69">
-        <v>12046314893.32056</v>
+        <v>10380539114.867838</v>
       </c>
       <c r="N31" s="69">
-        <v>14179556144.200842</v>
+        <v>12218542958.616758</v>
       </c>
       <c r="O31" s="69">
-        <v>17379418020.521263</v>
+        <v>14975548724.240141</v>
       </c>
       <c r="P31" s="69">
-        <v>20579279896.84169</v>
+        <v>17732554489.863522</v>
       </c>
       <c r="Q31" s="69">
-        <v>22712521147.72197</v>
+        <v>19570558333.612442</v>
       </c>
       <c r="R31" s="69">
-        <v>24845762398.602249</v>
+        <v>21408562177.361366</v>
       </c>
       <c r="S31" s="69">
-        <v>28045624274.922672</v>
+        <v>24165567942.984749</v>
       </c>
       <c r="T31" s="69">
-        <v>33378727402.123375</v>
+        <v>28760577552.357048</v>
       </c>
       <c r="U31" s="69">
-        <v>38711830529.324081</v>
+        <v>33355587161.729355</v>
       </c>
       <c r="V31" s="69">
-        <v>44044933656.52478</v>
+        <v>37950596771.101654</v>
       </c>
       <c r="W31" s="69">
-        <v>49378036783.725487</v>
+        <v>42545606380.473953</v>
       </c>
       <c r="X31" s="69">
-        <v>54711139910.926186</v>
+        <v>47140615989.84626</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
@@ -12296,40 +12314,40 @@
         <v>0.15</v>
       </c>
       <c r="M32" s="69">
-        <v>10613011248.637564</v>
+        <v>9144847869.3076496</v>
       </c>
       <c r="N32" s="69">
-        <v>12482147173.431147</v>
+        <v>10755298170.154844</v>
       </c>
       <c r="O32" s="69">
-        <v>15285851060.621519</v>
+        <v>13170973621.42564</v>
       </c>
       <c r="P32" s="69">
-        <v>18089554947.811893</v>
+        <v>15586649072.696434</v>
       </c>
       <c r="Q32" s="69">
-        <v>19958690872.605476</v>
+        <v>17197099373.543629</v>
       </c>
       <c r="R32" s="69">
-        <v>21827826797.399059</v>
+        <v>18807549674.390823</v>
       </c>
       <c r="S32" s="69">
-        <v>24631530684.589432</v>
+        <v>21223225125.661621</v>
       </c>
       <c r="T32" s="69">
-        <v>29304370496.573387</v>
+        <v>25249350877.77961</v>
       </c>
       <c r="U32" s="69">
-        <v>33977210308.557343</v>
+        <v>29275476629.897602</v>
       </c>
       <c r="V32" s="69">
-        <v>38650050120.541298</v>
+        <v>33301602382.015591</v>
       </c>
       <c r="W32" s="69">
-        <v>43322889932.525253</v>
+        <v>37327728134.133583</v>
       </c>
       <c r="X32" s="69">
-        <v>47995729744.509209</v>
+        <v>41353853886.251579</v>
       </c>
     </row>
     <row r="33" spans="12:24" x14ac:dyDescent="0.25">
@@ -12337,40 +12355,40 @@
         <v>0.2</v>
       </c>
       <c r="M33" s="69">
-        <v>8661985902.1606483</v>
+        <v>7462795746.199398</v>
       </c>
       <c r="N33" s="69">
-        <v>10172844624.812086</v>
+        <v>8764553875.2666168</v>
       </c>
       <c r="O33" s="69">
-        <v>12439132708.789246</v>
+        <v>10717191068.867447</v>
       </c>
       <c r="P33" s="69">
-        <v>14705420792.766407</v>
+        <v>12669828262.468277</v>
       </c>
       <c r="Q33" s="69">
-        <v>16216279515.417847</v>
+        <v>13971586391.535498</v>
       </c>
       <c r="R33" s="69">
-        <v>17727138238.069283</v>
+        <v>15273344520.602716</v>
       </c>
       <c r="S33" s="69">
-        <v>19993426322.046444</v>
+        <v>17225981714.203548</v>
       </c>
       <c r="T33" s="69">
-        <v>23770573128.675041</v>
+        <v>20480377036.871597</v>
       </c>
       <c r="U33" s="69">
-        <v>27547719935.303642</v>
+        <v>23734772359.53965</v>
       </c>
       <c r="V33" s="69">
-        <v>31324866741.932243</v>
+        <v>26989167682.207699</v>
       </c>
       <c r="W33" s="69">
-        <v>35102013548.560837</v>
+        <v>30243563004.875748</v>
       </c>
       <c r="X33" s="69">
-        <v>38879160355.189438</v>
+        <v>33497958327.543797</v>
       </c>
     </row>
   </sheetData>
@@ -12384,8 +12402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K293"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288:XFD288"/>
+    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286:XFD286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12941,28 +12959,28 @@
         <v>2021</v>
       </c>
       <c r="B15" s="67">
-        <f>B13*0.7</f>
-        <v>643219230.0029999</v>
+        <f>B13*0.68</f>
+        <v>624841537.71720004</v>
       </c>
       <c r="C15" s="66">
         <f t="shared" si="5"/>
-        <v>1.2421397321531669</v>
+        <v>1.1780785969487912</v>
       </c>
       <c r="D15" s="67">
         <f>B15*0.5</f>
-        <v>321609615.00149995</v>
+        <v>312420768.85860002</v>
       </c>
       <c r="E15" s="66">
         <f t="shared" si="6"/>
-        <v>0.72211371035889038</v>
+        <v>0.67291046149149381</v>
       </c>
       <c r="F15" s="69">
         <f t="shared" si="8"/>
-        <v>321609615.00149995</v>
+        <v>312420768.85860002</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" si="7"/>
-        <v>2.2120947664741291</v>
+        <v>2.1203206302891546</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" si="9"/>
@@ -12970,14 +12988,14 @@
       </c>
       <c r="I15" s="69">
         <f t="shared" si="2"/>
-        <v>148435206.92376924</v>
+        <v>144194201.01166159</v>
       </c>
       <c r="J15" s="63">
         <v>0.15</v>
       </c>
       <c r="K15" s="69">
         <f t="shared" si="3"/>
-        <v>126169925.88520385</v>
+        <v>122565070.85991235</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12991,7 +13009,7 @@
       </c>
       <c r="C16" s="66">
         <f t="shared" si="5"/>
-        <v>0.42857142857142871</v>
+        <v>0.47058823529411747</v>
       </c>
       <c r="D16" s="67">
         <f>B16*0.32</f>
@@ -12999,7 +13017,7 @@
       </c>
       <c r="E16" s="66">
         <f t="shared" si="6"/>
-        <v>-8.5714285714285632E-2</v>
+        <v>-5.882352941176483E-2</v>
       </c>
       <c r="F16" s="69">
         <f t="shared" si="8"/>
@@ -13007,7 +13025,7 @@
       </c>
       <c r="G16" s="63">
         <f t="shared" si="7"/>
-        <v>0.94285714285714328</v>
+        <v>1</v>
       </c>
       <c r="H16" s="63">
         <f t="shared" si="9"/>
@@ -13834,43 +13852,43 @@
         <v>2021</v>
       </c>
       <c r="B39" s="67">
-        <f>B37*0.7</f>
-        <v>274910408.542</v>
+        <f>B37*0.43</f>
+        <v>168873536.6758</v>
       </c>
       <c r="C39" s="66">
         <f t="shared" si="5"/>
-        <v>1.1629756247345504</v>
+        <v>0.32868502662265248</v>
       </c>
       <c r="D39" s="67">
         <f>B39*0.3</f>
-        <v>82473122.562600002</v>
+        <v>50662061.002739996</v>
       </c>
       <c r="E39" s="66">
         <f t="shared" si="6"/>
-        <v>1.8153885354510328</v>
+        <v>0.72945295749134853</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="12"/>
-        <v>192437285.97939998</v>
+        <v>118211475.67306</v>
       </c>
       <c r="G39" s="63">
         <f t="shared" si="7"/>
-        <v>0.96756977277901579</v>
+        <v>0.20865000327853842</v>
       </c>
       <c r="H39" s="63">
         <f t="shared" si="13"/>
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="2"/>
-        <v>148028681.52261537</v>
+        <v>90931904.363892317</v>
       </c>
       <c r="J39" s="63">
         <v>0.25</v>
       </c>
       <c r="K39" s="69">
         <f t="shared" si="3"/>
-        <v>111021511.14196153</v>
+        <v>68198928.272919238</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -13879,28 +13897,28 @@
         <v>2022</v>
       </c>
       <c r="B40" s="67">
-        <f>B37</f>
-        <v>392729155.06</v>
+        <f>B37*0.7</f>
+        <v>274910408.542</v>
       </c>
       <c r="C40" s="66">
         <f t="shared" si="5"/>
-        <v>0.4285714285714286</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="D40" s="67">
         <f>B40*0.2</f>
-        <v>78545831.012000009</v>
+        <v>54982081.708400004</v>
       </c>
       <c r="E40" s="66">
         <f t="shared" si="6"/>
-        <v>-4.7619047619047526E-2</v>
+        <v>8.527131782945753E-2</v>
       </c>
       <c r="F40" s="69">
         <f t="shared" si="12"/>
-        <v>314183324.04799998</v>
+        <v>219928326.83359998</v>
       </c>
       <c r="G40" s="63">
         <f t="shared" si="7"/>
-        <v>0.63265306122448983</v>
+        <v>0.86046511627906963</v>
       </c>
       <c r="H40" s="63">
         <f t="shared" si="13"/>
@@ -13908,14 +13926,14 @@
       </c>
       <c r="I40" s="69">
         <f t="shared" si="2"/>
-        <v>271889415.04153848</v>
+        <v>190322590.52907693</v>
       </c>
       <c r="J40" s="63">
         <v>0.25</v>
       </c>
       <c r="K40" s="69">
         <f t="shared" si="3"/>
-        <v>203917061.28115386</v>
+        <v>142741942.8968077</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -13924,28 +13942,28 @@
         <v>2023</v>
       </c>
       <c r="B41" s="67">
-        <f>B40*1.05</f>
-        <v>412365612.81300002</v>
+        <f>B37</f>
+        <v>392729155.06</v>
       </c>
       <c r="C41" s="66">
         <f t="shared" si="5"/>
-        <v>5.0000000000000051E-2</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D41" s="67">
         <f>B41*0.2</f>
-        <v>82473122.562600017</v>
+        <v>78545831.012000009</v>
       </c>
       <c r="E41" s="66">
         <f t="shared" si="6"/>
-        <v>5.0000000000000086E-2</v>
+        <v>0.42857142857142866</v>
       </c>
       <c r="F41" s="69">
         <f t="shared" si="12"/>
-        <v>329892490.25040001</v>
+        <v>314183324.04799998</v>
       </c>
       <c r="G41" s="63">
         <f t="shared" si="7"/>
-        <v>5.0000000000000093E-2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H41" s="63">
         <f t="shared" si="13"/>
@@ -13953,14 +13971,14 @@
       </c>
       <c r="I41" s="69">
         <f t="shared" si="2"/>
-        <v>285483885.7936154</v>
+        <v>271889415.04153848</v>
       </c>
       <c r="J41" s="63">
         <v>0.25</v>
       </c>
       <c r="K41" s="69">
         <f t="shared" si="3"/>
-        <v>214112914.34521157</v>
+        <v>203917061.28115386</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -13970,27 +13988,27 @@
       </c>
       <c r="B42" s="67">
         <f>B41*1.05</f>
-        <v>432983893.45365006</v>
+        <v>412365612.81300002</v>
       </c>
       <c r="C42" s="66">
         <f t="shared" si="5"/>
-        <v>5.0000000000000079E-2</v>
+        <v>5.0000000000000051E-2</v>
       </c>
       <c r="D42" s="67">
         <f>B42*0.2</f>
-        <v>86596778.69073002</v>
+        <v>82473122.562600017</v>
       </c>
       <c r="E42" s="66">
         <f t="shared" si="6"/>
-        <v>5.0000000000000037E-2</v>
+        <v>5.0000000000000086E-2</v>
       </c>
       <c r="F42" s="69">
         <f t="shared" si="12"/>
-        <v>346387114.76292002</v>
+        <v>329892490.25040001</v>
       </c>
       <c r="G42" s="63">
         <f t="shared" si="7"/>
-        <v>5.0000000000000044E-2</v>
+        <v>5.0000000000000093E-2</v>
       </c>
       <c r="H42" s="63">
         <f t="shared" si="13"/>
@@ -13998,14 +14016,14 @@
       </c>
       <c r="I42" s="69">
         <f t="shared" si="2"/>
-        <v>299758080.08329618</v>
+        <v>285483885.7936154</v>
       </c>
       <c r="J42" s="63">
         <v>0.25</v>
       </c>
       <c r="K42" s="69">
         <f t="shared" si="3"/>
-        <v>224818560.06247213</v>
+        <v>214112914.34521157</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -14015,42 +14033,42 @@
       </c>
       <c r="B43" s="67">
         <f>B42*1.05</f>
-        <v>454633088.12633258</v>
+        <v>432983893.45365006</v>
       </c>
       <c r="C43" s="66">
         <f t="shared" si="5"/>
-        <v>5.0000000000000051E-2</v>
+        <v>5.0000000000000079E-2</v>
       </c>
       <c r="D43" s="67">
         <f>B43*0.2</f>
-        <v>90926617.625266522</v>
+        <v>86596778.69073002</v>
       </c>
       <c r="E43" s="66">
         <f t="shared" si="6"/>
-        <v>5.000000000000001E-2</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="F43" s="69">
         <f t="shared" si="12"/>
-        <v>363706470.50106609</v>
+        <v>346387114.76292002</v>
       </c>
       <c r="G43" s="63">
         <f t="shared" si="7"/>
-        <v>5.000000000000019E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="H43" s="63">
         <f t="shared" si="13"/>
-        <v>0.8</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="2"/>
-        <v>314745984.08746099</v>
+        <v>299758080.08329618</v>
       </c>
       <c r="J43" s="63">
         <v>0.25</v>
       </c>
       <c r="K43" s="69">
         <f t="shared" si="3"/>
-        <v>236059488.06559575</v>
+        <v>224818560.06247213</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -14696,28 +14714,28 @@
         <v>2021</v>
       </c>
       <c r="B61" s="67">
-        <f>B59*0.7</f>
-        <v>233403682.79899999</v>
+        <f>B59*0.484</f>
+        <v>161381974.96388</v>
       </c>
       <c r="C61" s="66">
         <f t="shared" si="5"/>
-        <v>0.7096547021935764</v>
+        <v>0.1821041083738443</v>
       </c>
       <c r="D61" s="67">
         <f>B61*0.25</f>
-        <v>58350920.699749999</v>
+        <v>40345493.740970001</v>
       </c>
       <c r="E61" s="66">
         <f t="shared" si="6"/>
-        <v>0.69914565534482864</v>
+        <v>0.17483785312413869</v>
       </c>
       <c r="F61" s="69">
         <f t="shared" si="16"/>
-        <v>175052762.09924999</v>
+        <v>121036481.22291</v>
       </c>
       <c r="G61" s="63">
         <f t="shared" si="7"/>
-        <v>0.71318666522626872</v>
+        <v>0.18454620852787731</v>
       </c>
       <c r="H61" s="63">
         <f t="shared" si="17"/>
@@ -14725,14 +14743,14 @@
       </c>
       <c r="I61" s="69">
         <f t="shared" si="2"/>
-        <v>143633035.56861538</v>
+        <v>99311984.593156934</v>
       </c>
       <c r="J61" s="63">
         <v>0.25</v>
       </c>
       <c r="K61" s="69">
         <f t="shared" si="3"/>
-        <v>107724776.67646153</v>
+        <v>74483988.4448677</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -14741,28 +14759,28 @@
         <v>2022</v>
       </c>
       <c r="B62" s="67">
-        <f>B59</f>
-        <v>333433832.56999999</v>
+        <f>B59*0.8</f>
+        <v>266747066.05599999</v>
       </c>
       <c r="C62" s="66">
         <f t="shared" si="5"/>
-        <v>0.42857142857142855</v>
+        <v>0.65289256198347101</v>
       </c>
       <c r="D62" s="67">
         <f>B62*0.2</f>
-        <v>66686766.513999999</v>
+        <v>53349413.211199999</v>
       </c>
       <c r="E62" s="66">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>0.32231404958677679</v>
       </c>
       <c r="F62" s="69">
         <f t="shared" si="16"/>
-        <v>266747066.05599999</v>
+        <v>213397652.8448</v>
       </c>
       <c r="G62" s="63">
         <f t="shared" si="7"/>
-        <v>0.52380952380952384</v>
+        <v>0.76308539944903575</v>
       </c>
       <c r="H62" s="63">
         <f t="shared" si="17"/>
@@ -14770,14 +14788,14 @@
       </c>
       <c r="I62" s="69">
         <f t="shared" si="2"/>
-        <v>230838807.16384614</v>
+        <v>184671045.73107693</v>
       </c>
       <c r="J62" s="63">
         <v>0.25</v>
       </c>
       <c r="K62" s="69">
         <f t="shared" si="3"/>
-        <v>173129105.3728846</v>
+        <v>138503284.29830769</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -14786,43 +14804,43 @@
         <v>2023</v>
       </c>
       <c r="B63" s="67">
-        <f>B62*1.1</f>
-        <v>366777215.82700002</v>
+        <f>B59*1.05</f>
+        <v>350105524.19849998</v>
       </c>
       <c r="C63" s="66">
         <f t="shared" si="5"/>
-        <v>0.10000000000000009</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="D63" s="67">
         <f>B63*0.2</f>
-        <v>73355443.165400013</v>
+        <v>70021104.839699998</v>
       </c>
       <c r="E63" s="66">
         <f t="shared" si="6"/>
-        <v>0.10000000000000023</v>
+        <v>0.3125</v>
       </c>
       <c r="F63" s="69">
         <f t="shared" si="16"/>
-        <v>293421772.66159999</v>
+        <v>280084419.35879999</v>
       </c>
       <c r="G63" s="63">
         <f t="shared" si="7"/>
-        <v>0.1</v>
+        <v>0.3125</v>
       </c>
       <c r="H63" s="63">
         <f t="shared" si="17"/>
-        <v>0.79999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="I63" s="69">
         <f t="shared" si="2"/>
-        <v>253922687.88023078</v>
+        <v>242380747.52203846</v>
       </c>
       <c r="J63" s="63">
         <v>0.25</v>
       </c>
       <c r="K63" s="69">
         <f t="shared" si="3"/>
-        <v>190442015.91017309</v>
+        <v>181785560.64152884</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -14832,27 +14850,27 @@
       </c>
       <c r="B64" s="67">
         <f>B63*1.1</f>
-        <v>403454937.40970004</v>
+        <v>385116076.61835003</v>
       </c>
       <c r="C64" s="66">
         <f t="shared" si="5"/>
-        <v>0.10000000000000003</v>
+        <v>0.10000000000000016</v>
       </c>
       <c r="D64" s="67">
         <f>B64*0.2</f>
-        <v>80690987.481940016</v>
+        <v>77023215.323670015</v>
       </c>
       <c r="E64" s="66">
         <f t="shared" si="6"/>
-        <v>0.10000000000000002</v>
+        <v>0.10000000000000023</v>
       </c>
       <c r="F64" s="69">
         <f t="shared" si="16"/>
-        <v>322763949.92776</v>
+        <v>308092861.29468</v>
       </c>
       <c r="G64" s="63">
         <f t="shared" si="7"/>
-        <v>0.10000000000000005</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="H64" s="63">
         <f t="shared" si="17"/>
@@ -14860,14 +14878,14 @@
       </c>
       <c r="I64" s="69">
         <f t="shared" si="2"/>
-        <v>279314956.6682539</v>
+        <v>266618822.27424231</v>
       </c>
       <c r="J64" s="63">
         <v>0.25</v>
       </c>
       <c r="K64" s="69">
         <f t="shared" si="3"/>
-        <v>209486217.50119042</v>
+        <v>199964116.70568174</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -14877,27 +14895,27 @@
       </c>
       <c r="B65" s="67">
         <f>B64*1.11</f>
-        <v>447834980.5247671</v>
+        <v>427478845.0463686</v>
       </c>
       <c r="C65" s="66">
         <f t="shared" si="5"/>
-        <v>0.11000000000000015</v>
+        <v>0.11000000000000017</v>
       </c>
       <c r="D65" s="67">
         <f>B65*0.2</f>
-        <v>89566996.104953423</v>
+        <v>85495769.009273723</v>
       </c>
       <c r="E65" s="66">
         <f t="shared" si="6"/>
-        <v>0.11000000000000007</v>
+        <v>0.11000000000000008</v>
       </c>
       <c r="F65" s="69">
         <f t="shared" si="16"/>
-        <v>358267984.41981369</v>
+        <v>341983076.03709489</v>
       </c>
       <c r="G65" s="63">
         <f t="shared" si="7"/>
-        <v>0.11000000000000026</v>
+        <v>0.11000000000000029</v>
       </c>
       <c r="H65" s="63">
         <f t="shared" si="17"/>
@@ -14905,14 +14923,14 @@
       </c>
       <c r="I65" s="69">
         <f t="shared" si="2"/>
-        <v>310039601.90176183</v>
+        <v>295946892.72440904</v>
       </c>
       <c r="J65" s="63">
         <v>0.25</v>
       </c>
       <c r="K65" s="69">
         <f t="shared" si="3"/>
-        <v>232529701.42632139</v>
+        <v>221960169.54330677</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -15528,16 +15546,16 @@
         <v>2021</v>
       </c>
       <c r="B82" s="67">
-        <f>B77*0.3</f>
-        <v>44783810.147999994</v>
+        <f>B77*0.27</f>
+        <v>40305429.133200005</v>
       </c>
       <c r="C82" s="66">
         <f t="shared" si="5"/>
-        <v>0.74479464004762197</v>
+        <v>0.57031517604286019</v>
       </c>
       <c r="D82" s="67">
         <f>B82*0.4</f>
-        <v>17913524.0592</v>
+        <v>16122171.653280003</v>
       </c>
       <c r="E82" s="66" t="e">
         <f t="shared" si="6"/>
@@ -15545,11 +15563,11 @@
       </c>
       <c r="F82" s="69">
         <f t="shared" si="20"/>
-        <v>26870286.088799994</v>
+        <v>24183257.47992</v>
       </c>
       <c r="G82" s="63">
         <f t="shared" si="7"/>
-        <v>4.6876784028573114E-2</v>
+        <v>-5.7810894374284008E-2</v>
       </c>
       <c r="H82" s="63">
         <f t="shared" si="21"/>
@@ -15557,14 +15575,14 @@
       </c>
       <c r="I82" s="69">
         <f t="shared" si="2"/>
-        <v>17224542.364615381</v>
+        <v>15502088.128153846</v>
       </c>
       <c r="J82" s="63">
         <v>0.15</v>
       </c>
       <c r="K82" s="69">
         <f t="shared" si="3"/>
-        <v>14640861.009923073</v>
+        <v>13176774.908930769</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -15573,43 +15591,43 @@
         <v>2022</v>
       </c>
       <c r="B83" s="67">
-        <f>B77*0.8</f>
-        <v>119423493.728</v>
+        <f>B77*0.6</f>
+        <v>89567620.295999989</v>
       </c>
       <c r="C83" s="66">
         <f t="shared" si="5"/>
-        <v>1.6666666666666672</v>
+        <v>1.2222222222222217</v>
       </c>
       <c r="D83" s="67">
         <f>B83*0.3</f>
-        <v>35827048.1184</v>
+        <v>26870286.088799994</v>
       </c>
       <c r="E83" s="66">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="F83" s="69">
         <f t="shared" si="20"/>
-        <v>83596445.609600008</v>
+        <v>62697334.207199991</v>
       </c>
       <c r="G83" s="63">
         <f t="shared" si="7"/>
-        <v>2.111111111111112</v>
+        <v>1.5925925925925923</v>
       </c>
       <c r="H83" s="63">
         <f t="shared" si="21"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I83" s="69">
         <f t="shared" si="2"/>
-        <v>64304958.161230773</v>
+        <v>48228718.620923072</v>
       </c>
       <c r="J83" s="63">
         <v>0.15</v>
       </c>
       <c r="K83" s="69">
         <f t="shared" si="3"/>
-        <v>54659214.437046155</v>
+        <v>40994410.827784613</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -15618,43 +15636,43 @@
         <v>2023</v>
       </c>
       <c r="B84" s="67">
-        <f>B83*1.8</f>
-        <v>214962288.71040002</v>
+        <f>B77</f>
+        <v>149279367.16</v>
       </c>
       <c r="C84" s="66">
         <f t="shared" si="5"/>
-        <v>0.80000000000000016</v>
+        <v>0.66666666666666685</v>
       </c>
       <c r="D84" s="67">
         <f>B84*0.3</f>
-        <v>64488686.613120005</v>
+        <v>44783810.147999994</v>
       </c>
       <c r="E84" s="66">
         <f t="shared" si="6"/>
-        <v>0.80000000000000016</v>
+        <v>0.66666666666666685</v>
       </c>
       <c r="F84" s="69">
         <f t="shared" si="20"/>
-        <v>150473602.09728003</v>
+        <v>104495557.01199999</v>
       </c>
       <c r="G84" s="63">
         <f t="shared" si="7"/>
-        <v>0.80000000000000016</v>
+        <v>0.66666666666666685</v>
       </c>
       <c r="H84" s="63">
         <f t="shared" si="21"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I84" s="69">
         <f t="shared" si="2"/>
-        <v>115748924.69021539</v>
+        <v>80381197.701538473</v>
       </c>
       <c r="J84" s="63">
         <v>0.15</v>
       </c>
       <c r="K84" s="69">
         <f t="shared" si="3"/>
-        <v>98386585.986683086</v>
+        <v>68324018.046307698</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -15664,7 +15682,7 @@
       </c>
       <c r="B85" s="67">
         <f>B84*1.5</f>
-        <v>322443433.06560004</v>
+        <v>223919050.74000001</v>
       </c>
       <c r="C85" s="66">
         <f t="shared" si="5"/>
@@ -15672,34 +15690,34 @@
       </c>
       <c r="D85" s="67">
         <f>B85*0.3</f>
-        <v>96733029.919680014</v>
+        <v>67175715.222000003</v>
       </c>
       <c r="E85" s="66">
         <f t="shared" si="6"/>
-        <v>0.50000000000000011</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="F85" s="69">
         <f t="shared" si="20"/>
-        <v>225710403.14592004</v>
+        <v>156743335.51800001</v>
       </c>
       <c r="G85" s="63">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="H85" s="63">
         <f t="shared" si="21"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I85" s="69">
         <f t="shared" si="2"/>
-        <v>173623387.03532308</v>
+        <v>120571796.5523077</v>
       </c>
       <c r="J85" s="63">
         <v>0.15</v>
       </c>
       <c r="K85" s="69">
         <f t="shared" si="3"/>
-        <v>147579878.98002461</v>
+        <v>102486027.06946154</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -15709,7 +15727,7 @@
       </c>
       <c r="B86" s="67">
         <f>B85*1.3</f>
-        <v>419176462.98528004</v>
+        <v>291094765.96200001</v>
       </c>
       <c r="C86" s="66">
         <f t="shared" si="5"/>
@@ -15717,19 +15735,19 @@
       </c>
       <c r="D86" s="67">
         <f>B86*0.3</f>
-        <v>125752938.895584</v>
+        <v>87328429.788599998</v>
       </c>
       <c r="E86" s="66">
         <f t="shared" si="6"/>
-        <v>0.29999999999999982</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="F86" s="69">
         <f t="shared" si="20"/>
-        <v>293423524.08969605</v>
+        <v>203766336.17340001</v>
       </c>
       <c r="G86" s="63">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H86" s="63">
         <f t="shared" si="21"/>
@@ -15737,14 +15755,14 @@
       </c>
       <c r="I86" s="69">
         <f t="shared" si="2"/>
-        <v>225710403.14592004</v>
+        <v>156743335.51800001</v>
       </c>
       <c r="J86" s="63">
         <v>0.15</v>
       </c>
       <c r="K86" s="69">
         <f t="shared" si="3"/>
-        <v>191853842.67403203</v>
+        <v>133231835.1903</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -16410,16 +16428,16 @@
         <v>2021</v>
       </c>
       <c r="B107" s="67">
-        <f>B105</f>
-        <v>160649726.50999999</v>
+        <f>B105*0.73</f>
+        <v>117274300.35229999</v>
       </c>
       <c r="C107" s="66">
         <f t="shared" si="25"/>
-        <v>1.839035267686624</v>
+        <v>1.0724957454112354</v>
       </c>
       <c r="D107" s="67">
         <f>B107*0.3</f>
-        <v>48194917.952999994</v>
+        <v>35182290.105689995</v>
       </c>
       <c r="E107" s="66" t="e">
         <f t="shared" si="26"/>
@@ -16427,26 +16445,26 @@
       </c>
       <c r="F107" s="69">
         <f t="shared" si="29"/>
-        <v>112454808.557</v>
+        <v>82092010.246609986</v>
       </c>
       <c r="G107" s="63">
         <f t="shared" si="27"/>
-        <v>0.98732468738063672</v>
+        <v>0.45074702178786458</v>
       </c>
       <c r="H107" s="63">
         <f t="shared" si="30"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I107" s="69">
         <f t="shared" si="28"/>
-        <v>86503698.890000001</v>
+        <v>63147700.1897</v>
       </c>
       <c r="J107" s="63">
         <v>0.25</v>
       </c>
       <c r="K107" s="69">
         <f t="shared" si="24"/>
-        <v>64877774.167500004</v>
+        <v>47360775.142274998</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -16455,43 +16473,43 @@
         <v>2022</v>
       </c>
       <c r="B108" s="67">
-        <f>B105*1.3</f>
-        <v>208844644.463</v>
+        <f>B105</f>
+        <v>160649726.50999999</v>
       </c>
       <c r="C108" s="66">
         <f t="shared" si="25"/>
-        <v>0.3000000000000001</v>
+        <v>0.36986301369863017</v>
       </c>
       <c r="D108" s="67">
         <f>B108*0.3</f>
-        <v>62653393.3389</v>
+        <v>48194917.952999994</v>
       </c>
       <c r="E108" s="66">
         <f t="shared" si="26"/>
-        <v>0.30000000000000016</v>
+        <v>0.36986301369863017</v>
       </c>
       <c r="F108" s="69">
         <f t="shared" si="29"/>
-        <v>146191251.1241</v>
+        <v>112454808.557</v>
       </c>
       <c r="G108" s="63">
         <f t="shared" si="27"/>
-        <v>0.30000000000000004</v>
+        <v>0.36986301369863034</v>
       </c>
       <c r="H108" s="63">
         <f t="shared" si="30"/>
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I108" s="69">
         <f t="shared" si="28"/>
-        <v>112454808.557</v>
+        <v>86503698.890000001</v>
       </c>
       <c r="J108" s="63">
         <v>0.25</v>
       </c>
       <c r="K108" s="69">
         <f t="shared" si="24"/>
-        <v>84341106.417750001</v>
+        <v>64877774.167500004</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -16501,42 +16519,42 @@
       </c>
       <c r="B109" s="67">
         <f>B108*1.3</f>
-        <v>271498037.80190003</v>
+        <v>208844644.463</v>
       </c>
       <c r="C109" s="66">
         <f t="shared" si="25"/>
-        <v>0.30000000000000016</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="D109" s="67">
         <f>B109*0.3</f>
-        <v>81449411.340570003</v>
+        <v>62653393.3389</v>
       </c>
       <c r="E109" s="66">
         <f t="shared" si="26"/>
-        <v>0.30000000000000004</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="F109" s="69">
         <f t="shared" si="29"/>
-        <v>190048626.46133003</v>
+        <v>146191251.1241</v>
       </c>
       <c r="G109" s="63">
         <f t="shared" si="27"/>
-        <v>0.30000000000000021</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H109" s="63">
         <f t="shared" si="30"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I109" s="69">
         <f t="shared" si="28"/>
-        <v>146191251.12410003</v>
+        <v>112454808.557</v>
       </c>
       <c r="J109" s="63">
         <v>0.25</v>
       </c>
       <c r="K109" s="69">
         <f t="shared" si="24"/>
-        <v>109643438.34307502</v>
+        <v>84341106.417750001</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -16546,42 +16564,42 @@
       </c>
       <c r="B110" s="67">
         <f>B109*1.3</f>
-        <v>352947449.14247006</v>
+        <v>271498037.80190003</v>
       </c>
       <c r="C110" s="66">
         <f t="shared" si="25"/>
-        <v>0.3000000000000001</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="D110" s="67">
         <f>B110*0.3</f>
-        <v>105884234.74274102</v>
+        <v>81449411.340570003</v>
       </c>
       <c r="E110" s="66">
         <f t="shared" si="26"/>
-        <v>0.30000000000000016</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F110" s="69">
         <f t="shared" si="29"/>
-        <v>247063214.39972904</v>
+        <v>190048626.46133003</v>
       </c>
       <c r="G110" s="63">
         <f t="shared" si="27"/>
-        <v>0.30000000000000004</v>
+        <v>0.30000000000000021</v>
       </c>
       <c r="H110" s="63">
         <f t="shared" si="30"/>
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I110" s="69">
         <f t="shared" si="28"/>
-        <v>190048626.46133003</v>
+        <v>146191251.12410003</v>
       </c>
       <c r="J110" s="63">
         <v>0.25</v>
       </c>
       <c r="K110" s="69">
         <f t="shared" si="24"/>
-        <v>142536469.84599751</v>
+        <v>109643438.34307502</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -16591,42 +16609,42 @@
       </c>
       <c r="B111" s="67">
         <f>B110*1.15</f>
-        <v>405889566.51384056</v>
+        <v>312222743.47218502</v>
       </c>
       <c r="C111" s="66">
         <f t="shared" si="25"/>
-        <v>0.14999999999999997</v>
+        <v>0.14999999999999994</v>
       </c>
       <c r="D111" s="67">
         <f>B111*0.3</f>
-        <v>121766869.95415217</v>
+        <v>93666823.041655496</v>
       </c>
       <c r="E111" s="66">
         <f t="shared" si="26"/>
-        <v>0.14999999999999997</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="F111" s="69">
         <f t="shared" si="29"/>
-        <v>284122696.55968839</v>
+        <v>218555920.43052953</v>
       </c>
       <c r="G111" s="63">
         <f t="shared" si="27"/>
-        <v>0.14999999999999997</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="H111" s="63">
         <f t="shared" si="30"/>
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I111" s="69">
         <f t="shared" si="28"/>
-        <v>218555920.43052953</v>
+        <v>168119938.79271501</v>
       </c>
       <c r="J111" s="63">
         <v>0.25</v>
       </c>
       <c r="K111" s="69">
         <f t="shared" si="24"/>
-        <v>163916940.32289714</v>
+        <v>126089954.09453626</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -16715,15 +16733,15 @@
       <c r="A116" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B116" s="116" t="s">
+      <c r="B116" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="C116" s="117"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
-      <c r="G116" s="117"/>
-      <c r="H116" s="117"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="118"/>
+      <c r="F116" s="118"/>
+      <c r="G116" s="118"/>
+      <c r="H116" s="118"/>
       <c r="I116" s="69"/>
       <c r="J116" s="63"/>
       <c r="K116" s="69"/>
@@ -17289,16 +17307,16 @@
         <v>2021</v>
       </c>
       <c r="B132" s="67">
-        <f>B130</f>
-        <v>65470605.659999996</v>
+        <f>B130*0.8</f>
+        <v>52376484.527999997</v>
       </c>
       <c r="C132" s="66">
         <f t="shared" si="33"/>
-        <v>2.6129759530149665</v>
+        <v>1.8903807624119733</v>
       </c>
       <c r="D132" s="67">
         <f>B132*0.3</f>
-        <v>19641181.697999999</v>
+        <v>15712945.358399998</v>
       </c>
       <c r="E132" s="66" t="e">
         <f t="shared" si="26"/>
@@ -17306,11 +17324,11 @@
       </c>
       <c r="F132" s="69">
         <f t="shared" si="34"/>
-        <v>45829423.961999997</v>
+        <v>36663539.169599995</v>
       </c>
       <c r="G132" s="63">
         <f t="shared" si="27"/>
-        <v>1.5290831671104768</v>
+        <v>1.0232665336883813</v>
       </c>
       <c r="H132" s="63">
         <f t="shared" si="35"/>
@@ -17318,14 +17336,14 @@
       </c>
       <c r="I132" s="69">
         <f t="shared" si="36"/>
-        <v>35253403.047692306</v>
+        <v>28202722.438153848</v>
       </c>
       <c r="J132" s="63">
         <v>0.25</v>
       </c>
       <c r="K132" s="69">
         <f t="shared" si="24"/>
-        <v>26440052.285769232</v>
+        <v>21152041.828615386</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -17335,7 +17353,7 @@
       </c>
       <c r="B133" s="67">
         <f>B132*2</f>
-        <v>130941211.31999999</v>
+        <v>104752969.05599999</v>
       </c>
       <c r="C133" s="66">
         <f t="shared" si="33"/>
@@ -17343,7 +17361,7 @@
       </c>
       <c r="D133" s="67">
         <f>B133*0.3</f>
-        <v>39282363.395999998</v>
+        <v>31425890.716799997</v>
       </c>
       <c r="E133" s="66">
         <f t="shared" si="26"/>
@@ -17351,7 +17369,7 @@
       </c>
       <c r="F133" s="69">
         <f t="shared" si="34"/>
-        <v>91658847.923999995</v>
+        <v>73327078.33919999</v>
       </c>
       <c r="G133" s="63">
         <f t="shared" si="27"/>
@@ -17363,14 +17381,14 @@
       </c>
       <c r="I133" s="69">
         <f t="shared" si="36"/>
-        <v>70506806.095384613</v>
+        <v>56405444.876307696</v>
       </c>
       <c r="J133" s="63">
         <v>0.25</v>
       </c>
       <c r="K133" s="69">
         <f t="shared" si="24"/>
-        <v>52880104.571538463</v>
+        <v>42304083.657230772</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -17380,27 +17398,27 @@
       </c>
       <c r="B134" s="67">
         <f>B133*1.6</f>
-        <v>209505938.11199999</v>
+        <v>167604750.4896</v>
       </c>
       <c r="C134" s="66">
         <f t="shared" si="33"/>
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D134" s="67">
         <f>B134*0.3</f>
-        <v>62851781.433599994</v>
+        <v>50281425.146880001</v>
       </c>
       <c r="E134" s="66">
         <f t="shared" si="26"/>
-        <v>0.6</v>
+        <v>0.6000000000000002</v>
       </c>
       <c r="F134" s="69">
         <f t="shared" si="34"/>
-        <v>146654156.67839998</v>
+        <v>117323325.34272</v>
       </c>
       <c r="G134" s="63">
         <f t="shared" si="27"/>
-        <v>0.59999999999999987</v>
+        <v>0.6000000000000002</v>
       </c>
       <c r="H134" s="63">
         <f t="shared" si="35"/>
@@ -17408,14 +17426,14 @@
       </c>
       <c r="I134" s="69">
         <f t="shared" si="36"/>
-        <v>112810889.75261539</v>
+        <v>90248711.802092314</v>
       </c>
       <c r="J134" s="63">
         <v>0.25</v>
       </c>
       <c r="K134" s="69">
         <f t="shared" si="24"/>
-        <v>84608167.314461544</v>
+        <v>67686533.851569235</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -17425,7 +17443,7 @@
       </c>
       <c r="B135" s="67">
         <f>B134*1.5</f>
-        <v>314258907.16799998</v>
+        <v>251407125.7344</v>
       </c>
       <c r="C135" s="66">
         <f t="shared" si="33"/>
@@ -17433,34 +17451,34 @@
       </c>
       <c r="D135" s="67">
         <f>B135*0.3</f>
-        <v>94277672.150399998</v>
+        <v>75422137.720320001</v>
       </c>
       <c r="E135" s="66">
         <f t="shared" si="26"/>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="F135" s="69">
         <f t="shared" si="34"/>
-        <v>219981235.0176</v>
+        <v>175984988.01407999</v>
       </c>
       <c r="G135" s="63">
         <f t="shared" si="27"/>
-        <v>0.50000000000000022</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="H135" s="63">
         <f t="shared" si="35"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="I135" s="69">
         <f t="shared" si="36"/>
-        <v>169216334.62892306</v>
+        <v>135373067.70313847</v>
       </c>
       <c r="J135" s="63">
         <v>0.25</v>
       </c>
       <c r="K135" s="69">
         <f t="shared" si="24"/>
-        <v>126912250.97169229</v>
+        <v>101529800.77735385</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -17470,42 +17488,42 @@
       </c>
       <c r="B136" s="67">
         <f>B135*1.3</f>
-        <v>408536579.31839997</v>
+        <v>326829263.45472002</v>
       </c>
       <c r="C136" s="66">
         <f t="shared" si="33"/>
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D136" s="67">
         <f>B136*0.3</f>
-        <v>122560973.79551998</v>
+        <v>98048779.036416009</v>
       </c>
       <c r="E136" s="66">
         <f t="shared" si="26"/>
-        <v>0.29999999999999977</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="F136" s="69">
         <f t="shared" si="34"/>
-        <v>285975605.52287996</v>
+        <v>228780484.41830403</v>
       </c>
       <c r="G136" s="63">
         <f t="shared" si="27"/>
-        <v>0.29999999999999982</v>
+        <v>0.30000000000000021</v>
       </c>
       <c r="H136" s="63">
         <f t="shared" si="35"/>
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I136" s="69">
         <f t="shared" si="36"/>
-        <v>219981235.0176</v>
+        <v>175984988.01408002</v>
       </c>
       <c r="J136" s="63">
         <v>0.25</v>
       </c>
       <c r="K136" s="69">
         <f t="shared" si="24"/>
-        <v>164985926.26319999</v>
+        <v>131988741.01056001</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -17594,15 +17612,15 @@
       <c r="A141" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B141" s="116" t="s">
+      <c r="B141" s="117" t="s">
         <v>262</v>
       </c>
-      <c r="C141" s="117"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="117"/>
-      <c r="F141" s="117"/>
-      <c r="G141" s="117"/>
-      <c r="H141" s="117"/>
+      <c r="C141" s="118"/>
+      <c r="D141" s="118"/>
+      <c r="E141" s="118"/>
+      <c r="F141" s="118"/>
+      <c r="G141" s="118"/>
+      <c r="H141" s="118"/>
       <c r="I141" s="69"/>
       <c r="J141" s="63"/>
       <c r="K141" s="69"/>
@@ -18182,16 +18200,16 @@
         <v>2021</v>
       </c>
       <c r="B158" s="67">
-        <f>B157*2</f>
-        <v>50004356.280000001</v>
+        <f>B157</f>
+        <v>25002178.140000001</v>
       </c>
       <c r="C158" s="66">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" s="67">
         <f>B158*0.4</f>
-        <v>20001742.512000002</v>
+        <v>10000871.256000001</v>
       </c>
       <c r="E158" s="66" t="e">
         <f t="shared" si="26"/>
@@ -18199,11 +18217,11 @@
       </c>
       <c r="F158" s="69">
         <f t="shared" si="41"/>
-        <v>30002613.767999999</v>
+        <v>15001306.884</v>
       </c>
       <c r="G158" s="63">
         <f t="shared" si="27"/>
-        <v>0.19999999999999993</v>
+        <v>-0.4</v>
       </c>
       <c r="H158" s="63">
         <f t="shared" si="42"/>
@@ -18211,14 +18229,14 @@
       </c>
       <c r="I158" s="69">
         <f t="shared" si="39"/>
-        <v>19232444.723076921</v>
+        <v>9616222.3615384605</v>
       </c>
       <c r="J158" s="63">
         <v>0.25</v>
       </c>
       <c r="K158" s="69">
         <f t="shared" si="24"/>
-        <v>14424333.54230769</v>
+        <v>7212166.7711538449</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -18228,7 +18246,7 @@
       </c>
       <c r="B159" s="67">
         <f>B158*3</f>
-        <v>150013068.84</v>
+        <v>75006534.420000002</v>
       </c>
       <c r="C159" s="66">
         <f t="shared" si="40"/>
@@ -18236,7 +18254,7 @@
       </c>
       <c r="D159" s="67">
         <f>B159*0.4</f>
-        <v>60005227.536000006</v>
+        <v>30002613.768000003</v>
       </c>
       <c r="E159" s="66">
         <f t="shared" si="26"/>
@@ -18244,7 +18262,7 @@
       </c>
       <c r="F159" s="69">
         <f t="shared" si="41"/>
-        <v>90007841.30399999</v>
+        <v>45003920.651999995</v>
       </c>
       <c r="G159" s="63">
         <f t="shared" si="27"/>
@@ -18256,14 +18274,14 @@
       </c>
       <c r="I159" s="69">
         <f t="shared" si="39"/>
-        <v>57697334.169230774</v>
+        <v>28848667.084615387</v>
       </c>
       <c r="J159" s="63">
         <v>0.25</v>
       </c>
       <c r="K159" s="69">
         <f t="shared" si="24"/>
-        <v>43273000.626923084</v>
+        <v>21636500.313461542</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -18273,7 +18291,7 @@
       </c>
       <c r="B160" s="67">
         <f>B159*1.6</f>
-        <v>240020910.14400002</v>
+        <v>120010455.07200001</v>
       </c>
       <c r="C160" s="66">
         <f t="shared" si="40"/>
@@ -18281,7 +18299,7 @@
       </c>
       <c r="D160" s="67">
         <f>B160*0.3</f>
-        <v>72006273.043200001</v>
+        <v>36003136.521600001</v>
       </c>
       <c r="E160" s="66">
         <f t="shared" si="26"/>
@@ -18289,7 +18307,7 @@
       </c>
       <c r="F160" s="69">
         <f t="shared" si="41"/>
-        <v>168014637.10080004</v>
+        <v>84007318.550400019</v>
       </c>
       <c r="G160" s="63">
         <f t="shared" si="27"/>
@@ -18301,14 +18319,14 @@
       </c>
       <c r="I160" s="69">
         <f t="shared" si="39"/>
-        <v>129242028.53907695</v>
+        <v>64621014.269538477</v>
       </c>
       <c r="J160" s="63">
         <v>0.25</v>
       </c>
       <c r="K160" s="69">
         <f t="shared" si="24"/>
-        <v>96931521.404307723</v>
+        <v>48465760.702153862</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -18318,7 +18336,7 @@
       </c>
       <c r="B161" s="67">
         <f>B160*1.5</f>
-        <v>360031365.21600002</v>
+        <v>180015682.60800001</v>
       </c>
       <c r="C161" s="66">
         <f t="shared" si="40"/>
@@ -18326,7 +18344,7 @@
       </c>
       <c r="D161" s="67">
         <f>B161*0.3</f>
-        <v>108009409.56480001</v>
+        <v>54004704.782400005</v>
       </c>
       <c r="E161" s="66">
         <f t="shared" si="26"/>
@@ -18334,7 +18352,7 @@
       </c>
       <c r="F161" s="69">
         <f t="shared" si="41"/>
-        <v>252021955.6512</v>
+        <v>126010977.8256</v>
       </c>
       <c r="G161" s="63">
         <f t="shared" si="27"/>
@@ -18346,14 +18364,14 @@
       </c>
       <c r="I161" s="69">
         <f t="shared" si="39"/>
-        <v>193863042.80861539</v>
+        <v>96931521.404307693</v>
       </c>
       <c r="J161" s="63">
         <v>0.25</v>
       </c>
       <c r="K161" s="69">
         <f t="shared" si="24"/>
-        <v>145397282.10646152</v>
+        <v>72698641.053230762</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -18363,7 +18381,7 @@
       </c>
       <c r="B162" s="67">
         <f>B161*1.3</f>
-        <v>468040774.78080004</v>
+        <v>234020387.39040002</v>
       </c>
       <c r="C162" s="66">
         <f t="shared" si="40"/>
@@ -18371,7 +18389,7 @@
       </c>
       <c r="D162" s="67">
         <f>B162*0.3</f>
-        <v>140412232.43424001</v>
+        <v>70206116.217120007</v>
       </c>
       <c r="E162" s="66">
         <f t="shared" si="26"/>
@@ -18379,7 +18397,7 @@
       </c>
       <c r="F162" s="69">
         <f t="shared" si="41"/>
-        <v>327628542.34656</v>
+        <v>163814271.17328</v>
       </c>
       <c r="G162" s="63">
         <f t="shared" si="27"/>
@@ -18391,14 +18409,14 @@
       </c>
       <c r="I162" s="69">
         <f t="shared" si="39"/>
-        <v>252021955.65120003</v>
+        <v>126010977.82560001</v>
       </c>
       <c r="J162" s="63">
         <v>0.25</v>
       </c>
       <c r="K162" s="69">
         <f t="shared" si="24"/>
-        <v>189016466.73840001</v>
+        <v>94508233.369200006</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -18511,13 +18529,13 @@
       <c r="A168" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B168" s="116"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
-      <c r="F168" s="117"/>
-      <c r="G168" s="117"/>
-      <c r="H168" s="117"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="118"/>
+      <c r="D168" s="118"/>
+      <c r="E168" s="118"/>
+      <c r="F168" s="118"/>
+      <c r="G168" s="118"/>
+      <c r="H168" s="118"/>
       <c r="I168" s="69"/>
       <c r="J168" s="63"/>
       <c r="K168" s="69"/>
@@ -19095,8 +19113,8 @@
         <v>2021</v>
       </c>
       <c r="B185" s="67">
-        <f>50000000</f>
-        <v>50000000</v>
+        <f>100000000</f>
+        <v>100000000</v>
       </c>
       <c r="C185" s="66" t="e">
         <f t="shared" si="49"/>
@@ -19104,7 +19122,7 @@
       </c>
       <c r="D185" s="67">
         <f>B185*0.4</f>
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="E185" s="66" t="e">
         <f t="shared" si="43"/>
@@ -19112,7 +19130,7 @@
       </c>
       <c r="F185" s="69">
         <f t="shared" si="50"/>
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="G185" s="63" t="e">
         <f t="shared" si="45"/>
@@ -19124,14 +19142,14 @@
       </c>
       <c r="I185" s="69">
         <f t="shared" si="47"/>
-        <v>19230769.230769232</v>
+        <v>38461538.461538464</v>
       </c>
       <c r="J185" s="63">
         <v>0.25</v>
       </c>
       <c r="K185" s="69">
         <f t="shared" si="48"/>
-        <v>14423076.923076924</v>
+        <v>28846153.846153848</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -19141,7 +19159,7 @@
       </c>
       <c r="B186" s="67">
         <f>B185*4</f>
-        <v>200000000</v>
+        <v>400000000</v>
       </c>
       <c r="C186" s="66">
         <f t="shared" si="49"/>
@@ -19149,7 +19167,7 @@
       </c>
       <c r="D186" s="67">
         <f>B186*0.4</f>
-        <v>80000000</v>
+        <v>160000000</v>
       </c>
       <c r="E186" s="66">
         <f t="shared" si="43"/>
@@ -19157,7 +19175,7 @@
       </c>
       <c r="F186" s="69">
         <f t="shared" si="50"/>
-        <v>120000000</v>
+        <v>240000000</v>
       </c>
       <c r="G186" s="63">
         <f t="shared" si="45"/>
@@ -19169,14 +19187,14 @@
       </c>
       <c r="I186" s="69">
         <f t="shared" si="47"/>
-        <v>76923076.923076928</v>
+        <v>153846153.84615386</v>
       </c>
       <c r="J186" s="63">
         <v>0.25</v>
       </c>
       <c r="K186" s="69">
         <f t="shared" si="48"/>
-        <v>57692307.692307696</v>
+        <v>115384615.38461539</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -19186,7 +19204,7 @@
       </c>
       <c r="B187" s="67">
         <f>B186*1.8</f>
-        <v>360000000</v>
+        <v>720000000</v>
       </c>
       <c r="C187" s="66">
         <f t="shared" si="49"/>
@@ -19194,7 +19212,7 @@
       </c>
       <c r="D187" s="67">
         <f>B187*0.3</f>
-        <v>108000000</v>
+        <v>216000000</v>
       </c>
       <c r="E187" s="66">
         <f t="shared" si="43"/>
@@ -19202,7 +19220,7 @@
       </c>
       <c r="F187" s="69">
         <f t="shared" si="50"/>
-        <v>252000000</v>
+        <v>504000000</v>
       </c>
       <c r="G187" s="63">
         <f t="shared" si="45"/>
@@ -19214,14 +19232,14 @@
       </c>
       <c r="I187" s="69">
         <f t="shared" si="47"/>
-        <v>193846153.84615386</v>
+        <v>387692307.69230771</v>
       </c>
       <c r="J187" s="63">
         <v>0.25</v>
       </c>
       <c r="K187" s="69">
         <f t="shared" si="48"/>
-        <v>145384615.38461539</v>
+        <v>290769230.76923078</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -19231,7 +19249,7 @@
       </c>
       <c r="B188" s="67">
         <f>B187*1.4</f>
-        <v>503999999.99999994</v>
+        <v>1007999999.9999999</v>
       </c>
       <c r="C188" s="66">
         <f t="shared" si="49"/>
@@ -19239,7 +19257,7 @@
       </c>
       <c r="D188" s="67">
         <f>B188*0.3</f>
-        <v>151199999.99999997</v>
+        <v>302399999.99999994</v>
       </c>
       <c r="E188" s="66">
         <f t="shared" si="43"/>
@@ -19247,7 +19265,7 @@
       </c>
       <c r="F188" s="69">
         <f t="shared" si="50"/>
-        <v>352800000</v>
+        <v>705600000</v>
       </c>
       <c r="G188" s="63">
         <f t="shared" si="45"/>
@@ -19259,14 +19277,14 @@
       </c>
       <c r="I188" s="69">
         <f t="shared" si="47"/>
-        <v>271384615.38461542</v>
+        <v>542769230.76923084</v>
       </c>
       <c r="J188" s="63">
         <v>0.25</v>
       </c>
       <c r="K188" s="69">
         <f t="shared" si="48"/>
-        <v>203538461.53846157</v>
+        <v>407076923.07692313</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -19276,7 +19294,7 @@
       </c>
       <c r="B189" s="67">
         <f>B188*1.3</f>
-        <v>655200000</v>
+        <v>1310400000</v>
       </c>
       <c r="C189" s="66">
         <f t="shared" si="49"/>
@@ -19284,7 +19302,7 @@
       </c>
       <c r="D189" s="67">
         <f>B189*0.3</f>
-        <v>196560000</v>
+        <v>393120000</v>
       </c>
       <c r="E189" s="66">
         <f t="shared" si="43"/>
@@ -19292,7 +19310,7 @@
       </c>
       <c r="F189" s="69">
         <f t="shared" si="50"/>
-        <v>458640000</v>
+        <v>917280000</v>
       </c>
       <c r="G189" s="63">
         <f t="shared" si="45"/>
@@ -19304,14 +19322,14 @@
       </c>
       <c r="I189" s="69">
         <f t="shared" si="47"/>
-        <v>352800000</v>
+        <v>705600000</v>
       </c>
       <c r="J189" s="63">
         <v>0.25</v>
       </c>
       <c r="K189" s="69">
         <f t="shared" si="48"/>
-        <v>264600000</v>
+        <v>529200000</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -20691,16 +20709,16 @@
         <v>2021</v>
       </c>
       <c r="B223" s="67">
-        <f>B221*0.8</f>
-        <v>144341350.16800001</v>
+        <f>B221*0.5</f>
+        <v>90213343.855000004</v>
       </c>
       <c r="C223" s="66">
         <f t="shared" si="58"/>
-        <v>2.3322438978786897</v>
+        <v>1.0826524361741809</v>
       </c>
       <c r="D223" s="67">
         <f>B223*0.45</f>
-        <v>64953607.575600006</v>
+        <v>40596004.734750003</v>
       </c>
       <c r="E223" s="66" t="e">
         <f t="shared" si="26"/>
@@ -20708,11 +20726,11 @@
       </c>
       <c r="F223" s="69">
         <f t="shared" si="61"/>
-        <v>79387742.592400014</v>
+        <v>49617339.120250002</v>
       </c>
       <c r="G223" s="63">
         <f t="shared" si="27"/>
-        <v>0.83273414383327948</v>
+        <v>0.1454588398957995</v>
       </c>
       <c r="H223" s="63">
         <f t="shared" si="62"/>
@@ -20720,14 +20738,14 @@
       </c>
       <c r="I223" s="69">
         <f t="shared" si="63"/>
-        <v>44412723.128615394</v>
+        <v>27757951.95538462</v>
       </c>
       <c r="J223" s="63">
         <v>0.25</v>
       </c>
       <c r="K223" s="69">
         <f t="shared" si="24"/>
-        <v>33309542.346461546</v>
+        <v>20818463.966538467</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -20736,28 +20754,28 @@
         <v>2022</v>
       </c>
       <c r="B224" s="67">
-        <f>B221</f>
-        <v>180426687.71000001</v>
+        <f>B221*0.8</f>
+        <v>144341350.16800001</v>
       </c>
       <c r="C224" s="66">
         <f t="shared" si="58"/>
-        <v>0.24999999999999994</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D224" s="67">
         <f>B224*0.45</f>
-        <v>81192009.469500005</v>
+        <v>64953607.575600006</v>
       </c>
       <c r="E224" s="66">
         <f>(D224-D223)/D223</f>
-        <v>0.24999999999999997</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F224" s="69">
         <f t="shared" si="61"/>
-        <v>99234678.240500003</v>
+        <v>79387742.592400014</v>
       </c>
       <c r="G224" s="63">
         <f>(F224-F223)/F223</f>
-        <v>0.24999999999999981</v>
+        <v>0.6000000000000002</v>
       </c>
       <c r="H224" s="63">
         <f t="shared" si="62"/>
@@ -20765,14 +20783,14 @@
       </c>
       <c r="I224" s="69">
         <f t="shared" si="63"/>
-        <v>55515903.910769239</v>
+        <v>44412723.128615394</v>
       </c>
       <c r="J224" s="63">
         <v>0.25</v>
       </c>
       <c r="K224" s="69">
         <f>I224*(1-J224)</f>
-        <v>41636927.933076933</v>
+        <v>33309542.346461546</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -20782,42 +20800,42 @@
       </c>
       <c r="B225" s="67">
         <f>B224*1.2</f>
-        <v>216512025.252</v>
+        <v>173209620.20160002</v>
       </c>
       <c r="C225" s="66">
         <f t="shared" si="58"/>
-        <v>0.19999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="D225" s="67">
         <f>B225*0.45</f>
-        <v>97430411.363399997</v>
+        <v>77944329.090720013</v>
       </c>
       <c r="E225" s="66">
         <f>(D225-D224)/D224</f>
-        <v>0.1999999999999999</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="F225" s="69">
         <f t="shared" si="61"/>
-        <v>119081613.88860001</v>
+        <v>95265291.110880002</v>
       </c>
       <c r="G225" s="63">
         <f>(F225-F224)/F224</f>
-        <v>0.20000000000000004</v>
+        <v>0.19999999999999982</v>
       </c>
       <c r="H225" s="63">
         <f t="shared" si="62"/>
-        <v>0.55000000000000004</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="I225" s="69">
         <f t="shared" si="63"/>
-        <v>66619084.692923099</v>
+        <v>53295267.754338458</v>
       </c>
       <c r="J225" s="63">
         <v>0.25</v>
       </c>
       <c r="K225" s="69">
         <f>I225*(1-J225)</f>
-        <v>49964313.519692324</v>
+        <v>39971450.815753847</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -20827,27 +20845,27 @@
       </c>
       <c r="B226" s="67">
         <f>B225*1.2</f>
-        <v>259814430.30239999</v>
+        <v>207851544.24192002</v>
       </c>
       <c r="C226" s="66">
         <f t="shared" si="58"/>
-        <v>0.19999999999999996</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="D226" s="67">
         <f>B226*0.45</f>
-        <v>116916493.63608</v>
+        <v>93533194.908864006</v>
       </c>
       <c r="E226" s="66">
         <f>(D226-D225)/D225</f>
-        <v>0.2</v>
+        <v>0.19999999999999987</v>
       </c>
       <c r="F226" s="69">
         <f t="shared" si="61"/>
-        <v>142897936.66632</v>
+        <v>114318349.33305602</v>
       </c>
       <c r="G226" s="63">
         <f>(F226-F225)/F225</f>
-        <v>0.1999999999999999</v>
+        <v>0.20000000000000015</v>
       </c>
       <c r="H226" s="63">
         <f t="shared" si="62"/>
@@ -20855,14 +20873,14 @@
       </c>
       <c r="I226" s="69">
         <f t="shared" si="63"/>
-        <v>79942901.631507695</v>
+        <v>63954321.30520618</v>
       </c>
       <c r="J226" s="63">
         <v>0.25</v>
       </c>
       <c r="K226" s="69">
         <f>I226*(1-J226)</f>
-        <v>59957176.223630771</v>
+        <v>47965740.978904635</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -20872,23 +20890,23 @@
       </c>
       <c r="B227" s="67">
         <f>B226*1.2</f>
-        <v>311777316.36287999</v>
+        <v>249421853.09030402</v>
       </c>
       <c r="C227" s="66">
         <f t="shared" si="58"/>
-        <v>0.2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="D227" s="67">
         <f>B227*0.45</f>
-        <v>140299792.363296</v>
+        <v>112239833.89063682</v>
       </c>
       <c r="E227" s="66">
         <f>(D227-D226)/D226</f>
-        <v>0.20000000000000004</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="F227" s="69">
         <f t="shared" si="61"/>
-        <v>171477523.99958399</v>
+        <v>137182019.19966722</v>
       </c>
       <c r="G227" s="63">
         <f>(F227-F226)/F226</f>
@@ -20896,18 +20914,18 @@
       </c>
       <c r="H227" s="63">
         <f t="shared" si="62"/>
-        <v>0.54999999999999993</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I227" s="69">
         <f t="shared" si="63"/>
-        <v>95931481.95780924</v>
+        <v>76745185.566247374</v>
       </c>
       <c r="J227" s="63">
         <v>0.25</v>
       </c>
       <c r="K227" s="69">
         <f>I227*(1-J227)</f>
-        <v>71948611.468356937</v>
+        <v>57558889.17468553</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -23231,43 +23249,43 @@
       </c>
       <c r="B286" s="67">
         <f>B266+B242+B223+B204+B158+B132+B107+B82+B61+B39+B15+B185</f>
-        <v>1850179868.1599998</v>
+        <v>1563665483.41538</v>
       </c>
       <c r="C286" s="66">
         <f t="shared" si="83"/>
-        <v>1.0498651769863898</v>
+        <v>0.73242800771389027</v>
       </c>
       <c r="D286" s="69">
         <f>D266+D242+D223+D204+D158+D132+D107+D82+D61+D39+D15+D185</f>
-        <v>671478301.86664987</v>
+        <v>579382276.51542997</v>
       </c>
       <c r="E286" s="66">
         <f t="shared" si="65"/>
-        <v>0.90398219435562821</v>
+        <v>0.64284316431967303</v>
       </c>
       <c r="F286" s="69">
         <f t="shared" si="81"/>
-        <v>1178701566.29335</v>
+        <v>984283206.89995003</v>
       </c>
       <c r="G286" s="63">
         <f t="shared" si="66"/>
-        <v>1.1434224713488081</v>
+        <v>0.78988032609058212</v>
       </c>
       <c r="H286" s="63">
         <f t="shared" si="85"/>
-        <v>0.63707404159875891</v>
+        <v>0.62947172354924974</v>
       </c>
       <c r="I286" s="69">
         <f t="shared" si="84"/>
-        <v>817136326.82669234</v>
+        <v>672308134.93010318</v>
       </c>
       <c r="J286" s="69">
         <f t="shared" si="86"/>
-        <v>686394514.53442156</v>
+        <v>564738833.34128666</v>
       </c>
       <c r="K286" s="69">
         <f t="shared" si="80"/>
-        <v>614995143.12578082</v>
+        <v>491354576.26540506</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -23277,43 +23295,43 @@
       </c>
       <c r="B287" s="67">
         <f>B267+B243+B224+B205+B159+B133+B108+B83+B62+B40+B16+B186</f>
-        <v>2836433075.8360004</v>
+        <v>2636596657.1929998</v>
       </c>
       <c r="C287" s="66">
         <f t="shared" si="83"/>
-        <v>0.5330580148711852</v>
+        <v>0.68616413494918915</v>
       </c>
       <c r="D287" s="69">
         <f>D267+D243+D224+D205+D159+D133+D108+D83+D62+D40+D16</f>
-        <v>738409352.74309993</v>
+        <v>623995524.38010001</v>
       </c>
       <c r="E287" s="66">
         <f t="shared" si="65"/>
-        <v>9.9677161109134438E-2</v>
+        <v>7.7001402481599576E-2</v>
       </c>
       <c r="F287" s="69">
         <f t="shared" si="81"/>
-        <v>2098023723.0929005</v>
+        <v>2012601132.8128998</v>
       </c>
       <c r="G287" s="63">
         <f t="shared" si="66"/>
-        <v>0.77994479950555506</v>
+        <v>1.0447378546177672</v>
       </c>
       <c r="H287" s="63">
         <f t="shared" si="85"/>
-        <v>0.73966974259547313</v>
+        <v>0.76333296081607549</v>
       </c>
       <c r="I287" s="69">
         <f t="shared" si="84"/>
-        <v>1700418687.0004621</v>
+        <v>1676603542.7620769</v>
       </c>
       <c r="J287" s="69">
         <f t="shared" si="86"/>
-        <v>1428351697.0803881</v>
+        <v>1408346975.9201446</v>
       </c>
       <c r="K287" s="69">
         <f t="shared" si="80"/>
-        <v>1178395576.099654</v>
+        <v>1008926593.9668347</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -23323,43 +23341,43 @@
       </c>
       <c r="B288" s="67">
         <f>B268+B244+B225+B206+B160+B134+B109+B84+B63+B41+B17+B187</f>
-        <v>3478380878.3053002</v>
+        <v>3468522366.2897</v>
       </c>
       <c r="C288" s="66">
         <f t="shared" si="83"/>
-        <v>0.22632221008073469</v>
+        <v>0.31553013875940861</v>
       </c>
       <c r="D288" s="69">
         <f>D268+D244+D225+D206+D160+D134+D109+D84+D63+D41+D17</f>
-        <v>864991360.38738</v>
+        <v>751169260.96328998</v>
       </c>
       <c r="E288" s="66">
         <f t="shared" si="65"/>
-        <v>0.17142524965866626</v>
+        <v>0.20380552682573966</v>
       </c>
       <c r="F288" s="69">
         <f t="shared" si="81"/>
-        <v>2613389517.9179201</v>
+        <v>2717353105.3264103</v>
       </c>
       <c r="G288" s="63">
         <f t="shared" si="66"/>
-        <v>0.24564345443399888</v>
+        <v>0.35016971869061714</v>
       </c>
       <c r="H288" s="63">
         <f t="shared" si="85"/>
-        <v>0.751323563850543</v>
+        <v>0.78343248748693517</v>
       </c>
       <c r="I288" s="69">
         <f t="shared" si="84"/>
-        <v>2147624939.2477922</v>
+        <v>2312877349.4231</v>
       </c>
       <c r="J288" s="69">
         <f t="shared" si="86"/>
-        <v>1804004948.9681454</v>
+        <v>1942816973.515404</v>
       </c>
       <c r="K288" s="69">
         <f t="shared" si="80"/>
-        <v>1401277215.1897099</v>
+        <v>1251679750.1223228</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -23369,43 +23387,43 @@
       </c>
       <c r="B289" s="67">
         <f>B269+B245+B226+B207+B161+B135+B110+B85+B64+B42+B18+B188</f>
-        <v>4207105708.117095</v>
+        <v>4197344422.9168453</v>
       </c>
       <c r="C289" s="66">
         <f t="shared" si="83"/>
-        <v>0.20950116025443319</v>
+        <v>0.21012465241986339</v>
       </c>
       <c r="D289" s="69">
         <f>D269+D245+D226+D207+D161+D135+D110+D85+D64+D42+D18</f>
-        <v>1037701198.6183381</v>
+        <v>879674094.29239106</v>
       </c>
       <c r="E289" s="66">
         <f t="shared" si="65"/>
-        <v>0.19966654713592893</v>
+        <v>0.17107307235164032</v>
       </c>
       <c r="F289" s="69">
         <f t="shared" si="81"/>
-        <v>3169404509.4987569</v>
+        <v>3317670328.6244545</v>
       </c>
       <c r="G289" s="63">
         <f t="shared" si="66"/>
-        <v>0.21275626452493476</v>
+        <v>0.22091984369691758</v>
       </c>
       <c r="H289" s="63">
         <f t="shared" si="85"/>
-        <v>0.75334558468159696</v>
+        <v>0.7904212745826843</v>
       </c>
       <c r="I289" s="69">
         <f t="shared" si="84"/>
-        <v>2610642325.6273441</v>
+        <v>2843999662.4670129</v>
       </c>
       <c r="J289" s="69">
         <f t="shared" si="86"/>
-        <v>2192939553.526969</v>
+        <v>2388959716.4722905</v>
       </c>
       <c r="K289" s="69">
         <f t="shared" si="80"/>
-        <v>1648776882.1231265</v>
+        <v>1440489725.7045765</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -23415,43 +23433,43 @@
       </c>
       <c r="B290" s="67">
         <f>B270+B246+B227+B208+B162+B136+B111+B86+B65+B43+B19+B189</f>
-        <v>4903323675.8447666</v>
+        <v>4916686659.1020937</v>
       </c>
       <c r="C290" s="66">
         <f t="shared" si="83"/>
-        <v>0.16548620739060688</v>
+        <v>0.17138032139029433</v>
       </c>
       <c r="D290" s="69">
         <f>D270+D246+D227+D208+D162+D136+D111+D86+D65+D43+D19</f>
-        <v>1198529148.2521002</v>
+        <v>1000825256.7535203</v>
       </c>
       <c r="E290" s="66">
         <f t="shared" si="65"/>
-        <v>0.15498483556528483</v>
+        <v>0.1377227807971122</v>
       </c>
       <c r="F290" s="69">
         <f t="shared" si="81"/>
-        <v>3704794527.5926666</v>
+        <v>3915861402.3485737</v>
       </c>
       <c r="G290" s="63">
         <f t="shared" si="66"/>
-        <v>0.16892448297127652</v>
+        <v>0.18030455544753787</v>
       </c>
       <c r="H290" s="63">
         <f t="shared" si="85"/>
-        <v>0.75556801315066924</v>
+        <v>0.7964431483749882</v>
       </c>
       <c r="I290" s="69">
         <f t="shared" si="84"/>
-        <v>3059432678.533843</v>
+        <v>3376955494.8659086</v>
       </c>
       <c r="J290" s="69">
         <f t="shared" si="86"/>
-        <v>2569923449.9684281</v>
+        <v>2836642615.6873631</v>
       </c>
       <c r="K290" s="69">
         <f t="shared" si="80"/>
-        <v>1879749988.3740149</v>
+        <v>1619595393.8602722</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -23491,11 +23509,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26690,7 +26708,7 @@
       </c>
       <c r="M83" s="70"/>
       <c r="N83" s="63">
-        <f t="shared" ref="N83:N95" si="11">L83/F83</f>
+        <f t="shared" ref="N83:N96" si="11">L83/F83</f>
         <v>0.91140759999999998</v>
       </c>
       <c r="O83" s="57">
@@ -26768,7 +26786,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="63">
-        <f t="shared" ref="P85:P95" si="12">I85/L85</f>
+        <f t="shared" ref="P85:P96" si="12">I85/L85</f>
         <v>0</v>
       </c>
     </row>
@@ -26929,131 +26947,115 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" s="113"/>
+      <c r="C90" s="98">
+        <v>2021</v>
+      </c>
+      <c r="F90" s="70"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="63"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="63"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>307</v>
       </c>
-      <c r="B90" s="75" t="s">
+      <c r="B91" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="C90" s="98">
+      <c r="C91" s="98">
         <v>2016</v>
       </c>
-      <c r="F90" s="70">
+      <c r="F91" s="70">
         <v>830260000</v>
       </c>
-      <c r="H90" s="70">
+      <c r="H91" s="70">
         <v>1152800</v>
       </c>
-      <c r="K90" s="101">
+      <c r="K91" s="101">
         <v>1152800</v>
       </c>
-      <c r="L90" s="70">
-        <f>H90</f>
+      <c r="L91" s="70">
+        <f>H91</f>
         <v>1152800</v>
       </c>
-      <c r="N90" s="63">
+      <c r="N91" s="63">
         <f t="shared" si="11"/>
         <v>1.3884807168838677E-3</v>
       </c>
-      <c r="O90" s="57">
+      <c r="O91" s="57">
         <v>0.01</v>
       </c>
-      <c r="P90" s="63">
+      <c r="P91" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C91" s="98">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C92" s="98">
         <v>2017</v>
       </c>
-      <c r="F91" s="70">
+      <c r="F92" s="70">
         <v>830260000</v>
       </c>
-      <c r="G91" s="101">
+      <c r="G92" s="101">
         <v>1152800</v>
       </c>
-      <c r="H91" s="70">
+      <c r="H92" s="70">
         <v>5780099.7000000002</v>
       </c>
-      <c r="K91" s="101">
+      <c r="K92" s="101">
         <v>6932899.7000000002</v>
       </c>
-      <c r="L91" s="70">
-        <f>H91+L90</f>
+      <c r="L92" s="70">
+        <f>H92+L91</f>
         <v>6932899.7000000002</v>
       </c>
-      <c r="N91" s="63">
+      <c r="N92" s="63">
         <f t="shared" si="11"/>
         <v>8.3502754558812901E-3</v>
       </c>
-      <c r="O91" s="57">
+      <c r="O92" s="57">
         <v>0.05</v>
       </c>
-      <c r="P91" s="63">
+      <c r="P92" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C92" s="98">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="98">
         <v>2018</v>
       </c>
-      <c r="F92" s="70">
+      <c r="F93" s="70">
         <v>830260000</v>
       </c>
-      <c r="G92" s="101">
+      <c r="G93" s="101">
         <v>6932899.7000000002</v>
       </c>
-      <c r="H92" s="70">
+      <c r="H93" s="70">
         <v>24423782.699999999</v>
       </c>
-      <c r="K92" s="101">
+      <c r="K93" s="101">
         <v>31356682.399999999</v>
       </c>
-      <c r="L92" s="70">
-        <f>H92+L91</f>
+      <c r="L93" s="70">
+        <f>H93+L92</f>
         <v>31356682.399999999</v>
       </c>
-      <c r="N92" s="63">
+      <c r="N93" s="63">
         <f t="shared" si="11"/>
         <v>3.7767304699732614E-2</v>
       </c>
-      <c r="O92" s="57">
+      <c r="O93" s="57">
         <v>0.05</v>
-      </c>
-      <c r="P92" s="63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="99"/>
-      <c r="C93" s="98">
-        <v>2019</v>
-      </c>
-      <c r="F93" s="70">
-        <v>830260000</v>
-      </c>
-      <c r="G93" s="101">
-        <v>31356682.399999999</v>
-      </c>
-      <c r="H93" s="70">
-        <v>70995358</v>
-      </c>
-      <c r="K93" s="101">
-        <v>102352040.40000001</v>
-      </c>
-      <c r="L93" s="70">
-        <f>H93+L92</f>
-        <v>102352040.40000001</v>
-      </c>
-      <c r="N93" s="63">
-        <f t="shared" si="11"/>
-        <v>0.12327709440416255</v>
-      </c>
-      <c r="O93" s="57">
-        <v>0.2</v>
       </c>
       <c r="P93" s="63">
         <f t="shared" si="12"/>
@@ -27063,30 +27065,30 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="99"/>
       <c r="C94" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F94" s="70">
         <v>830260000</v>
       </c>
       <c r="G94" s="101">
+        <v>31356682.399999999</v>
+      </c>
+      <c r="H94" s="70">
+        <v>70995358</v>
+      </c>
+      <c r="K94" s="101">
         <v>102352040.40000001</v>
-      </c>
-      <c r="H94" s="70">
-        <v>192432812.81</v>
-      </c>
-      <c r="K94" s="101">
-        <v>294784853.20999998</v>
       </c>
       <c r="L94" s="70">
         <f>H94+L93</f>
-        <v>294784853.21000004</v>
+        <v>102352040.40000001</v>
       </c>
       <c r="N94" s="63">
         <f t="shared" si="11"/>
-        <v>0.35505125287259415</v>
+        <v>0.12327709440416255</v>
       </c>
       <c r="O94" s="57">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="P94" s="63">
         <f t="shared" si="12"/>
@@ -27094,34 +27096,32 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="B95" s="75" t="s">
-        <v>308</v>
-      </c>
+      <c r="B95" s="99"/>
       <c r="C95" s="98">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F95" s="70">
-        <v>690110000</v>
+        <v>830260000</v>
+      </c>
+      <c r="G95" s="101">
+        <v>102352040.40000001</v>
       </c>
       <c r="H95" s="70">
-        <v>354709</v>
+        <v>192432812.81</v>
       </c>
       <c r="K95" s="101">
-        <v>354709</v>
+        <v>294784853.20999998</v>
       </c>
       <c r="L95" s="70">
-        <f>H95</f>
-        <v>354709</v>
+        <f>H95+L94</f>
+        <v>294784853.21000004</v>
       </c>
       <c r="N95" s="63">
         <f t="shared" si="11"/>
-        <v>5.1398907420556147E-4</v>
+        <v>0.35505125287259415</v>
       </c>
       <c r="O95" s="57">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="P95" s="63">
         <f t="shared" si="12"/>
@@ -27129,254 +27129,255 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96" s="75" t="s">
+        <v>308</v>
+      </c>
       <c r="C96" s="98">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F96" s="70">
         <v>690110000</v>
       </c>
-      <c r="G96" s="101">
+      <c r="H96" s="70">
         <v>354709</v>
       </c>
-      <c r="H96" s="70">
-        <v>31255163.050000001</v>
-      </c>
       <c r="K96" s="101">
-        <v>31609872.050000001</v>
+        <v>354709</v>
       </c>
       <c r="L96" s="70">
-        <f>H96+L95</f>
-        <v>31609872.050000001</v>
+        <f>H96</f>
+        <v>354709</v>
       </c>
       <c r="N96" s="63">
-        <f t="shared" ref="N96:N118" si="13">L96/F96</f>
-        <v>4.5804106664154992E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.1398907420556147E-4</v>
       </c>
       <c r="O96" s="57">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="P96" s="63">
-        <f t="shared" ref="P96:P118" si="14">I96/L96</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="98">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F97" s="70">
         <v>690110000</v>
       </c>
       <c r="G97" s="101">
+        <v>354709</v>
+      </c>
+      <c r="H97" s="70">
+        <v>31255163.050000001</v>
+      </c>
+      <c r="K97" s="101">
         <v>31609872.050000001</v>
-      </c>
-      <c r="H97" s="70">
-        <v>377838503.56</v>
-      </c>
-      <c r="I97" s="70">
-        <v>371916384.95999998</v>
-      </c>
-      <c r="J97" s="70">
-        <v>29823638.260000002</v>
-      </c>
-      <c r="K97" s="101">
-        <v>7708352.3899999997</v>
       </c>
       <c r="L97" s="70">
         <f>H97+L96</f>
+        <v>31609872.050000001</v>
+      </c>
+      <c r="N97" s="63">
+        <f t="shared" ref="N97:N119" si="13">L97/F97</f>
+        <v>4.5804106664154992E-2</v>
+      </c>
+      <c r="O97" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="P97" s="63">
+        <f t="shared" ref="P97:P119" si="14">I97/L97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="98">
+        <v>2018</v>
+      </c>
+      <c r="F98" s="70">
+        <v>690110000</v>
+      </c>
+      <c r="G98" s="101">
+        <v>31609872.050000001</v>
+      </c>
+      <c r="H98" s="70">
+        <v>377838503.56</v>
+      </c>
+      <c r="I98" s="70">
+        <v>371916384.95999998</v>
+      </c>
+      <c r="J98" s="70">
+        <v>29823638.260000002</v>
+      </c>
+      <c r="K98" s="101">
+        <v>7708352.3899999997</v>
+      </c>
+      <c r="L98" s="70">
+        <f>H98+L97</f>
         <v>409448375.61000001</v>
       </c>
-      <c r="M97" s="70">
-        <f>I97</f>
+      <c r="M98" s="70">
+        <f>I98</f>
         <v>371916384.95999998</v>
       </c>
-      <c r="N97" s="63">
+      <c r="N98" s="63">
         <f t="shared" si="13"/>
         <v>0.59330885744301631</v>
       </c>
-      <c r="O97" s="57">
+      <c r="O98" s="57">
         <v>0.7</v>
       </c>
-      <c r="P97" s="63">
+      <c r="P98" s="63">
         <f t="shared" si="14"/>
         <v>0.9083352312874986</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B98" s="99"/>
-      <c r="C98" s="98">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="99"/>
+      <c r="C99" s="98">
         <v>2019</v>
       </c>
-      <c r="F98" s="70">
+      <c r="F99" s="70">
         <v>690110000</v>
       </c>
-      <c r="G98" s="101">
+      <c r="G99" s="101">
         <v>7708352.3899999997</v>
       </c>
-      <c r="H98" s="70">
+      <c r="H99" s="70">
         <v>20843082.59</v>
       </c>
-      <c r="I98" s="70">
+      <c r="I99" s="70">
         <v>26372137.199999999</v>
       </c>
-      <c r="J98" s="70">
+      <c r="J99" s="70">
         <v>2179297.7799999998</v>
       </c>
-      <c r="K98" s="101"/>
-      <c r="L98" s="70">
-        <f>H98+L97</f>
+      <c r="K99" s="101"/>
+      <c r="L99" s="70">
+        <f>H99+L98</f>
         <v>430291458.19999999</v>
       </c>
-      <c r="M98" s="108">
-        <f>I98+M97</f>
+      <c r="M99" s="108">
+        <f>I99+M98</f>
         <v>398288522.15999997</v>
       </c>
-      <c r="N98" s="63">
+      <c r="N99" s="63">
         <f t="shared" si="13"/>
         <v>0.62351140861601773</v>
       </c>
-      <c r="O98" s="57">
+      <c r="O99" s="57">
         <v>1</v>
       </c>
-      <c r="P98" s="63">
-        <f>M98/L98</f>
+      <c r="P99" s="63">
+        <f>M99/L99</f>
         <v>0.92562497946420996</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="99" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="99" t="s">
         <v>337</v>
       </c>
-      <c r="C99" s="98">
+      <c r="C100" s="98">
         <v>2020</v>
       </c>
-      <c r="F99" s="70">
+      <c r="F100" s="70">
         <v>15477872.07</v>
       </c>
-      <c r="G99" s="101"/>
-      <c r="H99" s="70">
+      <c r="G100" s="101"/>
+      <c r="H100" s="70">
         <v>14742695.859999999</v>
       </c>
-      <c r="I99" s="70">
+      <c r="I100" s="70">
         <v>13026913.869999999</v>
       </c>
-      <c r="J99" s="70">
+      <c r="J100" s="70">
         <v>1715781.99</v>
       </c>
-      <c r="K99" s="101"/>
-      <c r="L99" s="70">
-        <f>H99</f>
+      <c r="K100" s="101"/>
+      <c r="L100" s="70">
+        <f>H100</f>
         <v>14742695.859999999</v>
       </c>
-      <c r="M99" s="108">
-        <f>I99</f>
+      <c r="M100" s="108">
+        <f>I100</f>
         <v>13026913.869999999</v>
       </c>
-      <c r="N99" s="63">
+      <c r="N100" s="63">
         <f t="shared" si="13"/>
         <v>0.95250146747078002</v>
       </c>
-      <c r="O99" s="57">
+      <c r="O100" s="57">
         <v>1</v>
       </c>
-      <c r="P99" s="63">
-        <f>M99/L99</f>
+      <c r="P100" s="63">
+        <f>M100/L100</f>
         <v>0.88361816547709748</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="75" t="s">
+      <c r="B101" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="98">
+      <c r="C101" s="98">
         <v>2017</v>
       </c>
-      <c r="F100" s="103">
+      <c r="F101" s="103">
         <v>1692380000</v>
       </c>
-      <c r="H100" s="70">
+      <c r="H101" s="70">
         <v>3736021.86</v>
       </c>
-      <c r="K100" s="101">
+      <c r="K101" s="101">
         <v>3736021.86</v>
       </c>
-      <c r="L100" s="70">
-        <f>H100</f>
+      <c r="L101" s="70">
+        <f>H101</f>
         <v>3736021.86</v>
       </c>
-      <c r="N100" s="63">
+      <c r="N101" s="63">
         <f t="shared" si="13"/>
         <v>2.2075549581063352E-3</v>
       </c>
-      <c r="O100" s="57">
+      <c r="O101" s="57">
         <v>0.02</v>
       </c>
-      <c r="P100" s="63">
+      <c r="P101" s="63">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="C101" s="98">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="C102" s="98">
         <v>2018</v>
       </c>
-      <c r="F101" s="103">
+      <c r="F102" s="103">
         <v>1692380000</v>
       </c>
-      <c r="G101" s="101">
+      <c r="G102" s="101">
         <v>3736021.86</v>
       </c>
-      <c r="H101" s="70">
+      <c r="H102" s="70">
         <v>2804120.21</v>
       </c>
-      <c r="K101" s="101">
+      <c r="K102" s="101">
         <v>6540142.0700000003</v>
       </c>
-      <c r="L101" s="70">
-        <f>H101+L100</f>
+      <c r="L102" s="70">
+        <f>H102+L101</f>
         <v>6540142.0700000003</v>
       </c>
-      <c r="N101" s="63">
+      <c r="N102" s="63">
         <f t="shared" si="13"/>
         <v>3.8644642869804656E-3</v>
-      </c>
-      <c r="O101" s="57">
-        <v>0.02</v>
-      </c>
-      <c r="P101" s="63">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="98">
-        <v>2019</v>
-      </c>
-      <c r="F102" s="103">
-        <v>1692380000</v>
-      </c>
-      <c r="G102" s="101">
-        <v>6540142.0700000003</v>
-      </c>
-      <c r="H102" s="70">
-        <v>838294.12</v>
-      </c>
-      <c r="K102" s="101">
-        <v>7378436.1900000004</v>
-      </c>
-      <c r="L102" s="70">
-        <f>H102+L101</f>
-        <v>7378436.1900000004</v>
-      </c>
-      <c r="N102" s="63">
-        <f t="shared" si="13"/>
-        <v>4.3597987390538769E-3</v>
       </c>
       <c r="O102" s="57">
         <v>0.02</v>
@@ -27390,27 +27391,27 @@
       <c r="A103" s="99"/>
       <c r="B103" s="99"/>
       <c r="C103" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F103" s="103">
         <v>1692380000</v>
       </c>
       <c r="G103" s="101">
+        <v>6540142.0700000003</v>
+      </c>
+      <c r="H103" s="70">
+        <v>838294.12</v>
+      </c>
+      <c r="K103" s="101">
         <v>7378436.1900000004</v>
-      </c>
-      <c r="H103" s="70">
-        <v>672700.88</v>
-      </c>
-      <c r="K103" s="101">
-        <v>8051137.0700000003</v>
       </c>
       <c r="L103" s="70">
         <f>H103+L102</f>
-        <v>8051137.0700000003</v>
+        <v>7378436.1900000004</v>
       </c>
       <c r="N103" s="63">
         <f t="shared" si="13"/>
-        <v>4.7572868209267427E-3</v>
+        <v>4.3597987390538769E-3</v>
       </c>
       <c r="O103" s="57">
         <v>0.02</v>
@@ -27421,31 +27422,30 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="109" t="s">
-        <v>315</v>
-      </c>
-      <c r="B104" s="75" t="s">
-        <v>315</v>
-      </c>
+      <c r="A104" s="99"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="98">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F104" s="103">
-        <v>537980000</v>
+        <v>1692380000</v>
+      </c>
+      <c r="G104" s="101">
+        <v>7378436.1900000004</v>
       </c>
       <c r="H104" s="70">
-        <v>1817332.85</v>
+        <v>672700.88</v>
       </c>
       <c r="K104" s="101">
-        <v>1817332.85</v>
+        <v>8051137.0700000003</v>
       </c>
       <c r="L104" s="70">
-        <f>H104</f>
-        <v>1817332.85</v>
+        <f>H104+L103</f>
+        <v>8051137.0700000003</v>
       </c>
       <c r="N104" s="63">
         <f t="shared" si="13"/>
-        <v>3.3780676790958774E-3</v>
+        <v>4.7572868209267427E-3</v>
       </c>
       <c r="O104" s="57">
         <v>0.02</v>
@@ -27456,31 +27456,34 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="C105" s="98">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F105" s="103">
         <v>537980000</v>
       </c>
-      <c r="G105" s="101">
+      <c r="H105" s="70">
         <v>1817332.85</v>
       </c>
-      <c r="H105" s="70">
-        <v>21915405.48</v>
-      </c>
       <c r="K105" s="101">
-        <v>23732738.329999998</v>
+        <v>1817332.85</v>
       </c>
       <c r="L105" s="70">
-        <f>H105+L104</f>
-        <v>23732738.330000002</v>
+        <f>H105</f>
+        <v>1817332.85</v>
       </c>
       <c r="N105" s="63">
         <f t="shared" si="13"/>
-        <v>4.4114536469757243E-2</v>
+        <v>3.3780676790958774E-3</v>
       </c>
       <c r="O105" s="57">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="P105" s="63">
         <f t="shared" si="14"/>
@@ -27488,153 +27491,152 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="99"/>
       <c r="C106" s="98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F106" s="103">
         <v>537980000</v>
       </c>
       <c r="G106" s="101">
+        <v>1817332.85</v>
+      </c>
+      <c r="H106" s="70">
+        <v>21915405.48</v>
+      </c>
+      <c r="K106" s="101">
         <v>23732738.329999998</v>
-      </c>
-      <c r="H106" s="70">
-        <v>309822122.76999998</v>
-      </c>
-      <c r="I106" s="70">
-        <v>302252349.77999997</v>
-      </c>
-      <c r="J106" s="70">
-        <v>24777177.800000001</v>
-      </c>
-      <c r="K106" s="101">
-        <v>6525333.5199999996</v>
       </c>
       <c r="L106" s="70">
         <f>H106+L105</f>
-        <v>333554861.09999996</v>
-      </c>
-      <c r="M106" s="70">
-        <f>I106</f>
-        <v>302252349.77999997</v>
+        <v>23732738.330000002</v>
       </c>
       <c r="N106" s="63">
         <f t="shared" si="13"/>
-        <v>0.62001349697014752</v>
+        <v>4.4114536469757243E-2</v>
       </c>
       <c r="O106" s="57">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="P106" s="63">
         <f t="shared" si="14"/>
-        <v>0.90615483397012919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="99"/>
       <c r="C107" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F107" s="103">
-        <v>123920000</v>
+        <v>537980000</v>
       </c>
       <c r="G107" s="101">
+        <v>23732738.329999998</v>
+      </c>
+      <c r="H107" s="70">
+        <v>309822122.76999998</v>
+      </c>
+      <c r="I107" s="70">
+        <v>302252349.77999997</v>
+      </c>
+      <c r="J107" s="70">
+        <v>24777177.800000001</v>
+      </c>
+      <c r="K107" s="101">
         <v>6525333.5199999996</v>
       </c>
-      <c r="H107" s="70">
-        <v>49249285.710000001</v>
-      </c>
-      <c r="I107" s="70">
-        <v>-2516897.5299999998</v>
-      </c>
-      <c r="J107" s="70">
-        <v>538632.31000000006</v>
-      </c>
-      <c r="K107" s="101">
-        <v>57752884.450000003</v>
-      </c>
       <c r="L107" s="70">
-        <f>H107+G107</f>
-        <v>55774619.230000004</v>
+        <f>H107+L106</f>
+        <v>333554861.09999996</v>
       </c>
       <c r="M107" s="70">
-        <f>I107+M106</f>
-        <v>299735452.25</v>
+        <f>I107</f>
+        <v>302252349.77999997</v>
       </c>
       <c r="N107" s="63">
         <f t="shared" si="13"/>
-        <v>0.45008569423821826</v>
+        <v>0.62001349697014752</v>
       </c>
       <c r="O107" s="57">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="P107" s="63">
         <f t="shared" si="14"/>
-        <v>-4.5126216274484453E-2</v>
+        <v>0.90615483397012919</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="B108" s="75" t="s">
-        <v>319</v>
-      </c>
+      <c r="B108" s="99"/>
       <c r="C108" s="98">
-        <v>2018</v>
-      </c>
-      <c r="F108" s="70">
-        <v>480000000</v>
+        <v>2020</v>
+      </c>
+      <c r="F108" s="103">
+        <v>123920000</v>
+      </c>
+      <c r="G108" s="101">
+        <v>6525333.5199999996</v>
       </c>
       <c r="H108" s="70">
-        <v>4124609.6</v>
+        <v>49249285.710000001</v>
+      </c>
+      <c r="I108" s="70">
+        <v>-2516897.5299999998</v>
+      </c>
+      <c r="J108" s="70">
+        <v>538632.31000000006</v>
       </c>
       <c r="K108" s="101">
-        <v>4124609.6</v>
+        <v>57752884.450000003</v>
       </c>
       <c r="L108" s="70">
-        <f>H108</f>
-        <v>4124609.6</v>
+        <f>H108+G108</f>
+        <v>55774619.230000004</v>
+      </c>
+      <c r="M108" s="70">
+        <f>I108+M107</f>
+        <v>299735452.25</v>
       </c>
       <c r="N108" s="63">
         <f t="shared" si="13"/>
-        <v>8.592936666666667E-3</v>
+        <v>0.45008569423821826</v>
       </c>
       <c r="O108" s="57">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="P108" s="63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-4.5126216274484453E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B109" s="99"/>
+      <c r="A109" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>319</v>
+      </c>
       <c r="C109" s="98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F109" s="70">
         <v>480000000</v>
       </c>
-      <c r="G109" s="101">
+      <c r="H109" s="70">
         <v>4124609.6</v>
       </c>
-      <c r="H109" s="70">
-        <v>41937909.509999998</v>
-      </c>
       <c r="K109" s="101">
-        <v>46062519.109999999</v>
+        <v>4124609.6</v>
       </c>
       <c r="L109" s="70">
-        <f>H109+L108</f>
-        <v>46062519.109999999</v>
+        <f>H109</f>
+        <v>4124609.6</v>
       </c>
       <c r="N109" s="63">
         <f t="shared" si="13"/>
-        <v>9.5963581479166671E-2</v>
+        <v>8.592936666666667E-3</v>
       </c>
       <c r="O109" s="57">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="P109" s="63">
         <f t="shared" si="14"/>
@@ -27644,108 +27646,108 @@
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="99"/>
       <c r="C110" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F110" s="70">
         <v>480000000</v>
       </c>
       <c r="G110" s="101">
+        <v>4124609.6</v>
+      </c>
+      <c r="H110" s="70">
+        <v>41937909.509999998</v>
+      </c>
+      <c r="K110" s="101">
         <v>46062519.109999999</v>
-      </c>
-      <c r="H110" s="70">
-        <v>183273744.37</v>
-      </c>
-      <c r="I110" s="70">
-        <v>74541378.269999996</v>
-      </c>
-      <c r="J110" s="70">
-        <v>110219039.81</v>
-      </c>
-      <c r="K110" s="101">
-        <v>44575845.399999999</v>
       </c>
       <c r="L110" s="70">
         <f>H110+L109</f>
-        <v>229336263.48000002</v>
-      </c>
-      <c r="M110" s="70">
-        <f>I110</f>
-        <v>74541378.269999996</v>
+        <v>46062519.109999999</v>
       </c>
       <c r="N110" s="63">
         <f t="shared" si="13"/>
-        <v>0.47778388225000001</v>
+        <v>9.5963581479166671E-2</v>
       </c>
       <c r="O110" s="57">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P110" s="63">
-        <f>M110/L110</f>
-        <v>0.32503092680979606</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="110" t="s">
-        <v>351</v>
-      </c>
-      <c r="B111" s="75" t="s">
-        <v>321</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="99"/>
       <c r="C111" s="98">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F111" s="70">
-        <v>700000000</v>
+        <v>480000000</v>
+      </c>
+      <c r="G111" s="101">
+        <v>46062519.109999999</v>
       </c>
       <c r="H111" s="70">
-        <v>3719188.6</v>
+        <v>183273744.37</v>
+      </c>
+      <c r="I111" s="70">
+        <v>74541378.269999996</v>
+      </c>
+      <c r="J111" s="70">
+        <v>110219039.81</v>
       </c>
       <c r="K111" s="101">
-        <v>3719188.6</v>
+        <v>44575845.399999999</v>
       </c>
       <c r="L111" s="70">
-        <f>H111</f>
-        <v>3719188.6</v>
+        <f>H111+L110</f>
+        <v>229336263.48000002</v>
+      </c>
+      <c r="M111" s="70">
+        <f>I111</f>
+        <v>74541378.269999996</v>
       </c>
       <c r="N111" s="63">
         <f t="shared" si="13"/>
-        <v>5.3131265714285716E-3</v>
+        <v>0.47778388225000001</v>
       </c>
       <c r="O111" s="57">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="P111" s="63">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="99"/>
+        <f>M111/L111</f>
+        <v>0.32503092680979606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="B112" s="75" t="s">
+        <v>321</v>
+      </c>
       <c r="C112" s="98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F112" s="70">
         <v>700000000</v>
       </c>
-      <c r="G112" s="101">
+      <c r="H112" s="70">
         <v>3719188.6</v>
       </c>
-      <c r="H112" s="70">
-        <v>13825534.5</v>
-      </c>
       <c r="K112" s="101">
-        <v>17544723.100000001</v>
+        <v>3719188.6</v>
       </c>
       <c r="L112" s="70">
-        <f>H112+L111</f>
-        <v>17544723.100000001</v>
+        <f>H112</f>
+        <v>3719188.6</v>
       </c>
       <c r="N112" s="63">
         <f t="shared" si="13"/>
-        <v>2.5063890142857145E-2</v>
+        <v>5.3131265714285716E-3</v>
       </c>
       <c r="O112" s="57">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P112" s="63">
         <f t="shared" si="14"/>
@@ -27755,30 +27757,30 @@
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="99"/>
       <c r="C113" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F113" s="70">
         <v>700000000</v>
       </c>
       <c r="G113" s="101">
+        <v>3719188.6</v>
+      </c>
+      <c r="H113" s="70">
+        <v>13825534.5</v>
+      </c>
+      <c r="K113" s="101">
         <v>17544723.100000001</v>
-      </c>
-      <c r="H113" s="70">
-        <v>83068867.769999996</v>
-      </c>
-      <c r="K113" s="101">
-        <v>100613590.87</v>
       </c>
       <c r="L113" s="70">
         <f>H113+L112</f>
-        <v>100613590.87</v>
+        <v>17544723.100000001</v>
       </c>
       <c r="N113" s="63">
         <f t="shared" si="13"/>
-        <v>0.14373370124285714</v>
+        <v>2.5063890142857145E-2</v>
       </c>
       <c r="O113" s="57">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P113" s="63">
         <f t="shared" si="14"/>
@@ -27786,34 +27788,32 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="110" t="s">
-        <v>352</v>
-      </c>
-      <c r="B114" s="75" t="s">
-        <v>329</v>
-      </c>
+      <c r="B114" s="99"/>
       <c r="C114" s="98">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F114" s="70">
-        <v>400000000</v>
+        <v>700000000</v>
+      </c>
+      <c r="G114" s="101">
+        <v>17544723.100000001</v>
       </c>
       <c r="H114" s="70">
-        <v>32110163.809999999</v>
+        <v>83068867.769999996</v>
       </c>
       <c r="K114" s="101">
-        <v>32110163.809999999</v>
+        <v>100613590.87</v>
       </c>
       <c r="L114" s="70">
-        <f>H114</f>
-        <v>32110163.809999999</v>
+        <f>H114+L113</f>
+        <v>100613590.87</v>
       </c>
       <c r="N114" s="63">
         <f t="shared" si="13"/>
-        <v>8.0275409524999994E-2</v>
+        <v>0.14373370124285714</v>
       </c>
       <c r="O114" s="57">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P114" s="63">
         <f t="shared" si="14"/>
@@ -27821,31 +27821,34 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="75" t="s">
+        <v>329</v>
+      </c>
       <c r="C115" s="98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F115" s="70">
         <v>400000000</v>
       </c>
-      <c r="G115" s="101">
+      <c r="H115" s="70">
         <v>32110163.809999999</v>
       </c>
-      <c r="H115" s="70">
-        <v>69141674.530000001</v>
-      </c>
       <c r="K115" s="101">
-        <v>101251838.34</v>
+        <v>32110163.809999999</v>
       </c>
       <c r="L115" s="70">
-        <f>H115+L114</f>
-        <v>101251838.34</v>
+        <f>H115</f>
+        <v>32110163.809999999</v>
       </c>
       <c r="N115" s="63">
         <f t="shared" si="13"/>
-        <v>0.25312959585</v>
+        <v>8.0275409524999994E-2</v>
       </c>
       <c r="O115" s="57">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="P115" s="63">
         <f t="shared" si="14"/>
@@ -27853,34 +27856,31 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="110" t="s">
-        <v>339</v>
-      </c>
-      <c r="B116" s="75" t="s">
-        <v>338</v>
-      </c>
       <c r="C116" s="98">
         <v>2020</v>
       </c>
       <c r="F116" s="70">
-        <v>2500000000</v>
+        <v>400000000</v>
+      </c>
+      <c r="G116" s="101">
+        <v>32110163.809999999</v>
       </c>
       <c r="H116" s="70">
-        <v>65235857.43</v>
+        <v>69141674.530000001</v>
       </c>
       <c r="K116" s="101">
-        <v>65235857.43</v>
+        <v>101251838.34</v>
       </c>
       <c r="L116" s="70">
-        <f>H116</f>
-        <v>65235857.43</v>
+        <f>H116+L115</f>
+        <v>101251838.34</v>
       </c>
       <c r="N116" s="63">
         <f t="shared" si="13"/>
-        <v>2.6094342972000001E-2</v>
+        <v>0.25312959585</v>
       </c>
       <c r="O116" s="57">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="P116" s="63">
         <f t="shared" si="14"/>
@@ -27888,20 +27888,45 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="110" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F117" s="70">
+        <v>2500000000</v>
+      </c>
+      <c r="H117" s="70">
+        <v>65235857.43</v>
+      </c>
+      <c r="K117" s="101">
+        <v>65235857.43</v>
+      </c>
       <c r="L117" s="70">
         <f>H117</f>
-        <v>0</v>
-      </c>
-      <c r="N117" s="63" t="e">
+        <v>65235857.43</v>
+      </c>
+      <c r="N117" s="63">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P117" s="63" t="e">
+        <v>2.6094342972000001E-2</v>
+      </c>
+      <c r="O117" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="P117" s="63">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L118" s="70">
+        <f>H118</f>
+        <v>0</v>
+      </c>
       <c r="N118" s="63" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -27911,22 +27936,32 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N119" s="63" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P119" s="63" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>340</v>
       </c>
-      <c r="B120" s="75" t="s">
+      <c r="B121" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="C120" s="98">
+      <c r="C121" s="98">
         <v>2020</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P120"/>
+  <autoFilter ref="A1:P121"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
